--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_24_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_24_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1013856.443768091</v>
+        <v>1009342.573261993</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30171402.29412592</v>
+        <v>30171402.2941259</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4598136.109064539</v>
+        <v>4598136.10906454</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>46.11246622829066</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.3310518139933</v>
       </c>
       <c r="H11" t="n">
         <v>274.7695304478259</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>58.55484356332862</v>
       </c>
       <c r="T11" t="n">
-        <v>210.1161913164022</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6141907117556</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>56.71573557346611</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>92.06206970855649</v>
       </c>
       <c r="H12" t="n">
-        <v>42.69029760379511</v>
+        <v>42.6902976037951</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.713139123526</v>
       </c>
       <c r="H13" t="n">
         <v>134.5230953913808</v>
       </c>
       <c r="I13" t="n">
-        <v>72.26896432086181</v>
+        <v>21.50771850012243</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.943533196782482</v>
+        <v>6.943533196782475</v>
       </c>
       <c r="S13" t="n">
-        <v>153.0757232160747</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1405668778449</v>
@@ -1587,7 +1587,7 @@
         <v>277.3345352391432</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>203.9354066654654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>189.3615279757474</v>
+        <v>49.1951095934509</v>
       </c>
       <c r="G14" t="n">
         <v>398.3310518139933</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.55484356332863</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.1161913164022</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6141907117556</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>60.98608808836785</v>
+        <v>60.98608808836784</v>
       </c>
       <c r="T15" t="n">
         <v>136.2242063313587</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.713139123526</v>
       </c>
       <c r="H16" t="n">
         <v>134.5230953913808</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.943533196782489</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>4.523482770276551</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1405668778449</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3345352391432</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>222.0071546174926</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>131.1981961321288</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>398.3310518139933</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>274.7695304478259</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>58.55484356332864</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.1161913164022</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>153.9942625355341</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>60.98608808836785</v>
+        <v>60.98608808836784</v>
       </c>
       <c r="T18" t="n">
         <v>136.2242063313587</v>
@@ -2004,25 +2004,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>151.5692209483707</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>55.08775487415433</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>134.5230953913808</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>72.26896432086181</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.943533196782489</v>
+        <v>6.943533196782482</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2083,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>158.4853857450315</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>398.3310518139933</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>274.7695304478259</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.1161913164022</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6141907117556</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>128.7220102075377</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>92.06206970855649</v>
       </c>
       <c r="H21" t="n">
-        <v>42.69029760379511</v>
+        <v>42.6902976037951</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>60.98608808836785</v>
+        <v>60.98608808836784</v>
       </c>
       <c r="T21" t="n">
         <v>136.2242063313587</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>163.713139123526</v>
+        <v>40.76431079325982</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I22" t="n">
-        <v>72.26896432086181</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>6.943533196782475</v>
       </c>
       <c r="S22" t="n">
-        <v>29.97872569461323</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1405668778449</v>
@@ -2301,7 +2301,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2320,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>206.295673311361</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>130.5352555931829</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>398.3310518139933</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>60.98608808836785</v>
+        <v>60.98608808836784</v>
       </c>
       <c r="T24" t="n">
         <v>136.2242063313587</v>
@@ -2478,25 +2478,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>111.7608836048599</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>11.86704828873775</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.713139123526</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>72.26896432086183</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.943533196782496</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>153.0757232160747</v>
@@ -2532,7 +2532,7 @@
         <v>237.1405668778449</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3345352391432</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2541,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>32.29156664676332</v>
+        <v>351.9185391302544</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>398.3310518139933</v>
       </c>
       <c r="H26" t="n">
-        <v>274.7695304478259</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.55484356332864</v>
+        <v>58.55484356332863</v>
       </c>
       <c r="T26" t="n">
-        <v>210.1161913164022</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6141907117556</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>60.98608808836785</v>
+        <v>60.98608808836784</v>
       </c>
       <c r="T27" t="n">
         <v>136.2242063313587</v>
@@ -2715,22 +2715,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>21.70059704407533</v>
+        <v>163.713139123526</v>
       </c>
       <c r="H28" t="n">
-        <v>134.5230953913808</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>72.26896432086181</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.943533196782489</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>153.0757232160747</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1405668778449</v>
+        <v>116.906088000563</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3345352391432</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>48.59429339022677</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3310518139933</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.7695304478259</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.55484356332863</v>
       </c>
       <c r="T29" t="n">
-        <v>210.1161913164022</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>203.1463627141757</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>60.98608808836785</v>
+        <v>60.98608808836784</v>
       </c>
       <c r="T30" t="n">
         <v>136.2242063313587</v>
@@ -2952,7 +2952,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>168.6366542154804</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.713139123526</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>72.26896432086181</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.943533196782489</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>153.0757232160747</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1405668778449</v>
@@ -3015,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>162.6689082894183</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>128.3346882032001</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>308.9978405340963</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.55484356332864</v>
+        <v>58.55484356332863</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6141907117556</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>60.98608808836785</v>
+        <v>60.98608808836784</v>
       </c>
       <c r="T33" t="n">
         <v>136.2242063313587</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -3204,10 +3204,10 @@
         <v>163.713139123526</v>
       </c>
       <c r="H34" t="n">
-        <v>134.5230953913808</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>72.26896432086181</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.943533196782489</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>153.0757232160747</v>
+        <v>143.960577379412</v>
       </c>
       <c r="T34" t="n">
         <v>237.1405668778449</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3345352391432</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>128.3604838243086</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>59.20953722656675</v>
+        <v>398.3310518139933</v>
       </c>
       <c r="H35" t="n">
-        <v>274.7695304478259</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.55484356332864</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>63.65654041623309</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>60.98608808836785</v>
+        <v>60.98608808836784</v>
       </c>
       <c r="T36" t="n">
         <v>136.2242063313587</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>132.6970556516353</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.713139123526</v>
       </c>
       <c r="H37" t="n">
-        <v>134.5230953913808</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.943533196782489</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>153.0757232160747</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1405668778449</v>
+        <v>211.2241591478459</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3345352391432</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3505,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>210.1161913164022</v>
       </c>
       <c r="U38" t="n">
-        <v>201.3875800198366</v>
+        <v>236.8497769717026</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>60.98608808836785</v>
+        <v>60.98608808836784</v>
       </c>
       <c r="T39" t="n">
         <v>136.2242063313587</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>21.12820659208058</v>
       </c>
       <c r="C40" t="n">
-        <v>56.37192966899565</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.943533196782489</v>
+        <v>6.943533196782482</v>
       </c>
       <c r="S40" t="n">
         <v>153.0757232160747</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3345352391432</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,22 +3742,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>322.213518991355</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.3310518139933</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>274.7695304478259</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.55484356332864</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>146.3735587734029</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>5.327349922390666</v>
       </c>
       <c r="G43" t="n">
-        <v>163.713139123526</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>134.5230953913808</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.943533196782482</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>153.0757232160747</v>
       </c>
       <c r="T43" t="n">
         <v>237.1405668778449</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3345352391432</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>190.0910575043991</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3979,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>178.0816364277851</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>359.965620934939</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>58.55484356332864</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6141907117556</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.713139123526</v>
       </c>
       <c r="H46" t="n">
-        <v>134.5230953913808</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>72.26896432086181</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>6.943533196782482</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>153.0757232160747</v>
       </c>
       <c r="T46" t="n">
         <v>237.1405668778449</v>
@@ -4197,13 +4197,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>89.59888270885838</v>
+        <v>120.6195137893608</v>
       </c>
     </row>
   </sheetData>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1219.190368037627</v>
+        <v>1573.190168937994</v>
       </c>
       <c r="C11" t="n">
-        <v>792.2896380509274</v>
+        <v>1573.190168937994</v>
       </c>
       <c r="D11" t="n">
-        <v>792.2896380509274</v>
+        <v>1573.190168937994</v>
       </c>
       <c r="E11" t="n">
-        <v>366.3126981987849</v>
+        <v>1147.213229085852</v>
       </c>
       <c r="F11" t="n">
-        <v>319.7344494833398</v>
+        <v>722.0890472752521</v>
       </c>
       <c r="G11" t="n">
         <v>319.7344494833398</v>
@@ -5041,10 +5041,10 @@
         <v>82.97064708758353</v>
       </c>
       <c r="J11" t="n">
-        <v>218.9221049399276</v>
+        <v>218.9221049399277</v>
       </c>
       <c r="K11" t="n">
-        <v>430.9231076957181</v>
+        <v>430.9231076957183</v>
       </c>
       <c r="L11" t="n">
         <v>699.9256343271983</v>
@@ -5059,7 +5059,7 @@
         <v>1605.217916110744</v>
       </c>
       <c r="P11" t="n">
-        <v>1847.70796765412</v>
+        <v>1847.707967654121</v>
       </c>
       <c r="Q11" t="n">
         <v>2021.979826295251</v>
@@ -5068,25 +5068,25 @@
         <v>2109.473461650529</v>
       </c>
       <c r="S11" t="n">
-        <v>2109.473461650529</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="T11" t="n">
-        <v>1897.234884563254</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="U11" t="n">
-        <v>1639.038732329157</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="V11" t="n">
-        <v>1639.038732329157</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="W11" t="n">
-        <v>1639.038732329157</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="X11" t="n">
-        <v>1639.038732329157</v>
+        <v>1993.038533229524</v>
       </c>
       <c r="Y11" t="n">
-        <v>1639.038732329157</v>
+        <v>1993.038533229524</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>42.18946923301058</v>
       </c>
       <c r="I12" t="n">
-        <v>62.00829666969778</v>
+        <v>62.00829666969779</v>
       </c>
       <c r="J12" t="n">
-        <v>316.8455455652631</v>
+        <v>139.9221534753171</v>
       </c>
       <c r="K12" t="n">
-        <v>462.7128958003925</v>
+        <v>285.7895037104465</v>
       </c>
       <c r="L12" t="n">
-        <v>666.3769622783195</v>
+        <v>489.4535701883735</v>
       </c>
       <c r="M12" t="n">
-        <v>907.1888127226364</v>
+        <v>730.2654206326904</v>
       </c>
       <c r="N12" t="n">
-        <v>1156.715641088999</v>
+        <v>979.7922489990526</v>
       </c>
       <c r="O12" t="n">
-        <v>1381.373223301572</v>
+        <v>1204.449831211626</v>
       </c>
       <c r="P12" t="n">
-        <v>1558.539115924941</v>
+        <v>1381.615723834995</v>
       </c>
       <c r="Q12" t="n">
-        <v>1668.857953910524</v>
+        <v>1774.31345419543</v>
       </c>
       <c r="R12" t="n">
         <v>1815.489017493114</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>423.0429007502993</v>
+        <v>875.2057023408518</v>
       </c>
       <c r="C13" t="n">
-        <v>251.0703376292153</v>
+        <v>703.2331392197677</v>
       </c>
       <c r="D13" t="n">
-        <v>251.0703376292153</v>
+        <v>703.2331392197677</v>
       </c>
       <c r="E13" t="n">
-        <v>251.0703376292153</v>
+        <v>537.0249333726213</v>
       </c>
       <c r="F13" t="n">
-        <v>251.0703376292153</v>
+        <v>365.1631591471817</v>
       </c>
       <c r="G13" t="n">
-        <v>251.0703376292153</v>
+        <v>199.7963519517008</v>
       </c>
       <c r="H13" t="n">
-        <v>115.188423092467</v>
+        <v>63.91443741495243</v>
       </c>
       <c r="I13" t="n">
         <v>42.18946923301058</v>
       </c>
       <c r="J13" t="n">
-        <v>83.44117394564145</v>
+        <v>161.3628905938623</v>
       </c>
       <c r="K13" t="n">
-        <v>164.0487930513367</v>
+        <v>301.1349621079789</v>
       </c>
       <c r="L13" t="n">
-        <v>648.4473789924708</v>
+        <v>409.1446544579481</v>
       </c>
       <c r="M13" t="n">
-        <v>1170.542060750977</v>
+        <v>523.5552019544488</v>
       </c>
       <c r="N13" t="n">
-        <v>1681.541951949755</v>
+        <v>1034.555093153227</v>
       </c>
       <c r="O13" t="n">
-        <v>1977.429521969784</v>
+        <v>1513.299820018578</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.791182666786</v>
+        <v>1909.417685288887</v>
       </c>
       <c r="Q13" t="n">
         <v>2109.473461650529</v>
@@ -5226,25 +5226,25 @@
         <v>2102.459791754789</v>
       </c>
       <c r="S13" t="n">
-        <v>1947.837849112289</v>
+        <v>2102.459791754789</v>
       </c>
       <c r="T13" t="n">
-        <v>1708.301922973052</v>
+        <v>1862.923865615552</v>
       </c>
       <c r="U13" t="n">
-        <v>1428.166028792099</v>
+        <v>1582.787971434599</v>
       </c>
       <c r="V13" t="n">
-        <v>1146.454561400128</v>
+        <v>1582.787971434599</v>
       </c>
       <c r="W13" t="n">
-        <v>871.6021575726411</v>
+        <v>1307.935567607112</v>
       </c>
       <c r="X13" t="n">
-        <v>629.0382610184462</v>
+        <v>1065.371671052917</v>
       </c>
       <c r="Y13" t="n">
-        <v>423.0429007502993</v>
+        <v>1065.371671052917</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1340.264047944525</v>
+        <v>771.7810771676268</v>
       </c>
       <c r="C14" t="n">
-        <v>913.3633179578253</v>
+        <v>771.7810771676268</v>
       </c>
       <c r="D14" t="n">
-        <v>913.3633179578253</v>
+        <v>771.7810771676268</v>
       </c>
       <c r="E14" t="n">
-        <v>913.3633179578253</v>
+        <v>771.7810771676268</v>
       </c>
       <c r="F14" t="n">
         <v>722.0890472752521</v>
@@ -5272,58 +5272,58 @@
         <v>319.7344494833398</v>
       </c>
       <c r="H14" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I14" t="n">
-        <v>82.97064708758307</v>
+        <v>82.97064708758376</v>
       </c>
       <c r="J14" t="n">
-        <v>218.9221049399273</v>
+        <v>218.9221049399277</v>
       </c>
       <c r="K14" t="n">
-        <v>430.9231076957176</v>
+        <v>430.9231076957182</v>
       </c>
       <c r="L14" t="n">
-        <v>699.9256343271976</v>
+        <v>699.9256343271984</v>
       </c>
       <c r="M14" t="n">
-        <v>1004.389060027289</v>
+        <v>1004.38906002729</v>
       </c>
       <c r="N14" t="n">
-        <v>1314.528766123479</v>
+        <v>1314.52876612348</v>
       </c>
       <c r="O14" t="n">
-        <v>1605.217916110743</v>
+        <v>1605.217916110744</v>
       </c>
       <c r="P14" t="n">
-        <v>1847.70796765412</v>
+        <v>1847.707967654121</v>
       </c>
       <c r="Q14" t="n">
-        <v>2021.97982629525</v>
+        <v>2021.979826295251</v>
       </c>
       <c r="R14" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S14" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="T14" t="n">
-        <v>2109.473461650528</v>
+        <v>1838.088577933629</v>
       </c>
       <c r="U14" t="n">
-        <v>2109.473461650528</v>
+        <v>1579.892425699533</v>
       </c>
       <c r="V14" t="n">
-        <v>1751.984046776778</v>
+        <v>1579.892425699533</v>
       </c>
       <c r="W14" t="n">
-        <v>1751.984046776778</v>
+        <v>1183.50107599988</v>
       </c>
       <c r="X14" t="n">
-        <v>1340.264047944525</v>
+        <v>771.7810771676268</v>
       </c>
       <c r="Y14" t="n">
-        <v>1340.264047944525</v>
+        <v>771.7810771676268</v>
       </c>
     </row>
     <row r="15">
@@ -5348,31 +5348,31 @@
         <v>178.3029715687193</v>
       </c>
       <c r="G15" t="n">
-        <v>85.31098196411673</v>
+        <v>85.31098196411676</v>
       </c>
       <c r="H15" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I15" t="n">
-        <v>62.00829666969776</v>
+        <v>85.46560251410963</v>
       </c>
       <c r="J15" t="n">
-        <v>139.9221534753171</v>
+        <v>163.3794593197289</v>
       </c>
       <c r="K15" t="n">
-        <v>285.7895037104464</v>
+        <v>309.2468095548583</v>
       </c>
       <c r="L15" t="n">
-        <v>489.4535701883734</v>
+        <v>512.9108760327854</v>
       </c>
       <c r="M15" t="n">
-        <v>730.2654206326902</v>
+        <v>753.7227264771022</v>
       </c>
       <c r="N15" t="n">
-        <v>979.7922489990522</v>
+        <v>1262.171141373904</v>
       </c>
       <c r="O15" t="n">
-        <v>1204.449831211625</v>
+        <v>1486.828723586478</v>
       </c>
       <c r="P15" t="n">
         <v>1663.994616209847</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>924.4296536961147</v>
+        <v>582.6453506718426</v>
       </c>
       <c r="C16" t="n">
-        <v>752.4570905750306</v>
+        <v>582.6453506718426</v>
       </c>
       <c r="D16" t="n">
-        <v>589.1403177018013</v>
+        <v>582.6453506718426</v>
       </c>
       <c r="E16" t="n">
-        <v>422.9321118546549</v>
+        <v>416.4371448246962</v>
       </c>
       <c r="F16" t="n">
-        <v>251.0703376292153</v>
+        <v>416.4371448246962</v>
       </c>
       <c r="G16" t="n">
         <v>251.0703376292153</v>
       </c>
       <c r="H16" t="n">
-        <v>115.1884230924669</v>
+        <v>115.188423092467</v>
       </c>
       <c r="I16" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="J16" t="n">
-        <v>161.3628905938623</v>
+        <v>83.44117394564147</v>
       </c>
       <c r="K16" t="n">
-        <v>241.9705096995575</v>
+        <v>164.0487930513367</v>
       </c>
       <c r="L16" t="n">
-        <v>465.5902221471487</v>
+        <v>648.4473789924708</v>
       </c>
       <c r="M16" t="n">
-        <v>987.6849039056544</v>
+        <v>1170.542060750977</v>
       </c>
       <c r="N16" t="n">
-        <v>1498.684795104432</v>
+        <v>1681.541951949755</v>
       </c>
       <c r="O16" t="n">
-        <v>1977.429521969783</v>
+        <v>1826.056024591885</v>
       </c>
       <c r="P16" t="n">
-        <v>2060.791182666785</v>
+        <v>1909.417685288887</v>
       </c>
       <c r="Q16" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="R16" t="n">
-        <v>2102.459791754789</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S16" t="n">
-        <v>2097.890617239358</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="T16" t="n">
-        <v>1858.35469110012</v>
+        <v>1869.937535511292</v>
       </c>
       <c r="U16" t="n">
-        <v>1858.35469110012</v>
+        <v>1589.801641330339</v>
       </c>
       <c r="V16" t="n">
-        <v>1858.35469110012</v>
+        <v>1308.090173938368</v>
       </c>
       <c r="W16" t="n">
-        <v>1583.502287272633</v>
+        <v>1033.237770110881</v>
       </c>
       <c r="X16" t="n">
-        <v>1340.938390718438</v>
+        <v>808.9881189821006</v>
       </c>
       <c r="Y16" t="n">
-        <v>1114.59562240818</v>
+        <v>582.6453506718426</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1277.905098526746</v>
+        <v>469.0901992197105</v>
       </c>
       <c r="C17" t="n">
-        <v>1277.905098526746</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="D17" t="n">
-        <v>854.6124777117459</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="E17" t="n">
-        <v>854.6124777117459</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="F17" t="n">
-        <v>722.0890472752521</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="G17" t="n">
-        <v>319.7344494833398</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="H17" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I17" t="n">
-        <v>82.97064708758364</v>
+        <v>82.97064708758353</v>
       </c>
       <c r="J17" t="n">
-        <v>218.9221049399277</v>
+        <v>218.9221049399275</v>
       </c>
       <c r="K17" t="n">
-        <v>430.9231076957181</v>
+        <v>430.923107695718</v>
       </c>
       <c r="L17" t="n">
         <v>699.9256343271982</v>
       </c>
       <c r="M17" t="n">
-        <v>1004.389060027289</v>
+        <v>1004.38906002729</v>
       </c>
       <c r="N17" t="n">
         <v>1314.52876612348</v>
@@ -5536,31 +5536,31 @@
         <v>1847.70796765412</v>
       </c>
       <c r="Q17" t="n">
-        <v>2021.97982629525</v>
+        <v>2021.979826295251</v>
       </c>
       <c r="R17" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S17" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="T17" t="n">
-        <v>2109.473461650528</v>
+        <v>1838.088577933629</v>
       </c>
       <c r="U17" t="n">
-        <v>2109.473461650528</v>
+        <v>1682.538817796726</v>
       </c>
       <c r="V17" t="n">
-        <v>2109.473461650528</v>
+        <v>1682.538817796726</v>
       </c>
       <c r="W17" t="n">
-        <v>2109.473461650528</v>
+        <v>1286.147468097073</v>
       </c>
       <c r="X17" t="n">
-        <v>1697.753462818276</v>
+        <v>874.4274692648202</v>
       </c>
       <c r="Y17" t="n">
-        <v>1697.753462818276</v>
+        <v>469.0901992197105</v>
       </c>
     </row>
     <row r="18">
@@ -5585,28 +5585,28 @@
         <v>178.3029715687193</v>
       </c>
       <c r="G18" t="n">
-        <v>85.31098196411673</v>
+        <v>85.31098196411676</v>
       </c>
       <c r="H18" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I18" t="n">
-        <v>62.00829666969776</v>
+        <v>62.00829666969778</v>
       </c>
       <c r="J18" t="n">
-        <v>139.9221534753171</v>
+        <v>422.3010458501697</v>
       </c>
       <c r="K18" t="n">
-        <v>285.7895037104464</v>
+        <v>568.1683960852989</v>
       </c>
       <c r="L18" t="n">
-        <v>489.4535701883734</v>
+        <v>771.8324625632259</v>
       </c>
       <c r="M18" t="n">
-        <v>730.2654206326902</v>
+        <v>1012.644313007543</v>
       </c>
       <c r="N18" t="n">
-        <v>979.7922489990522</v>
+        <v>1262.171141373905</v>
       </c>
       <c r="O18" t="n">
         <v>1486.828723586478</v>
@@ -5649,52 +5649,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>642.0038704661088</v>
+        <v>367.1514666386226</v>
       </c>
       <c r="C19" t="n">
-        <v>470.0313073450247</v>
+        <v>214.0512434584502</v>
       </c>
       <c r="D19" t="n">
-        <v>306.7145344717954</v>
+        <v>214.0512434584502</v>
       </c>
       <c r="E19" t="n">
-        <v>306.7145344717954</v>
+        <v>214.0512434584502</v>
       </c>
       <c r="F19" t="n">
-        <v>251.0703376292153</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="G19" t="n">
-        <v>251.0703376292153</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="H19" t="n">
-        <v>115.1884230924669</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I19" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="J19" t="n">
-        <v>161.3628905938623</v>
+        <v>83.44117394564145</v>
       </c>
       <c r="K19" t="n">
-        <v>489.2531188135795</v>
+        <v>411.3314021653588</v>
       </c>
       <c r="L19" t="n">
-        <v>973.6517047547136</v>
+        <v>895.7299881064929</v>
       </c>
       <c r="M19" t="n">
-        <v>1088.062252251214</v>
+        <v>1010.140535602994</v>
       </c>
       <c r="N19" t="n">
-        <v>1412.257417456429</v>
+        <v>1123.107503959891</v>
       </c>
       <c r="O19" t="n">
-        <v>1513.299820018577</v>
+        <v>1601.852230825242</v>
       </c>
       <c r="P19" t="n">
-        <v>1909.417685288886</v>
+        <v>1997.970096095552</v>
       </c>
       <c r="Q19" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="R19" t="n">
         <v>2102.459791754789</v>
@@ -5703,22 +5703,22 @@
         <v>2102.459791754789</v>
       </c>
       <c r="T19" t="n">
-        <v>1862.923865615551</v>
+        <v>1862.923865615552</v>
       </c>
       <c r="U19" t="n">
-        <v>1582.787971434598</v>
+        <v>1582.787971434599</v>
       </c>
       <c r="V19" t="n">
-        <v>1301.076504042627</v>
+        <v>1301.076504042628</v>
       </c>
       <c r="W19" t="n">
-        <v>1301.076504042627</v>
+        <v>1026.224100215141</v>
       </c>
       <c r="X19" t="n">
-        <v>1058.512607488432</v>
+        <v>783.6602036609462</v>
       </c>
       <c r="Y19" t="n">
-        <v>832.1698391781745</v>
+        <v>557.3174353506882</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1574.113959072552</v>
+        <v>479.8206977106444</v>
       </c>
       <c r="C20" t="n">
-        <v>1147.213229085852</v>
+        <v>479.8206977106444</v>
       </c>
       <c r="D20" t="n">
-        <v>1147.213229085852</v>
+        <v>319.7344494833398</v>
       </c>
       <c r="E20" t="n">
-        <v>1147.213229085852</v>
+        <v>319.7344494833398</v>
       </c>
       <c r="F20" t="n">
-        <v>722.0890472752521</v>
+        <v>319.7344494833398</v>
       </c>
       <c r="G20" t="n">
         <v>319.7344494833398</v>
       </c>
       <c r="H20" t="n">
-        <v>42.18946923301056</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I20" t="n">
-        <v>82.97064708758364</v>
+        <v>82.97064708758387</v>
       </c>
       <c r="J20" t="n">
-        <v>218.9221049399277</v>
+        <v>218.9221049399279</v>
       </c>
       <c r="K20" t="n">
-        <v>430.9231076957181</v>
+        <v>430.9231076957184</v>
       </c>
       <c r="L20" t="n">
-        <v>699.9256343271982</v>
+        <v>699.9256343271986</v>
       </c>
       <c r="M20" t="n">
-        <v>1004.389060027289</v>
+        <v>1004.38906002729</v>
       </c>
       <c r="N20" t="n">
-        <v>1314.528766123479</v>
+        <v>1314.528766123481</v>
       </c>
       <c r="O20" t="n">
-        <v>1605.217916110743</v>
+        <v>1605.217916110745</v>
       </c>
       <c r="P20" t="n">
-        <v>1847.707967654119</v>
+        <v>1847.707967654121</v>
       </c>
       <c r="Q20" t="n">
-        <v>2021.97982629525</v>
+        <v>2021.979826295251</v>
       </c>
       <c r="R20" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S20" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="T20" t="n">
-        <v>2109.473461650528</v>
+        <v>1897.234884563254</v>
       </c>
       <c r="U20" t="n">
-        <v>2109.473461650528</v>
+        <v>1639.038732329158</v>
       </c>
       <c r="V20" t="n">
-        <v>2109.473461650528</v>
+        <v>1281.549317455407</v>
       </c>
       <c r="W20" t="n">
-        <v>1979.451229117662</v>
+        <v>885.157967755754</v>
       </c>
       <c r="X20" t="n">
-        <v>1979.451229117662</v>
+        <v>885.157967755754</v>
       </c>
       <c r="Y20" t="n">
-        <v>1574.113959072552</v>
+        <v>479.8206977106444</v>
       </c>
     </row>
     <row r="21">
@@ -5822,37 +5822,37 @@
         <v>178.3029715687193</v>
       </c>
       <c r="G21" t="n">
-        <v>85.31098196411673</v>
+        <v>85.31098196411675</v>
       </c>
       <c r="H21" t="n">
-        <v>42.18946923301056</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I21" t="n">
-        <v>62.00829666969776</v>
+        <v>85.46560251410963</v>
       </c>
       <c r="J21" t="n">
-        <v>139.922153475317</v>
+        <v>316.845545565263</v>
       </c>
       <c r="K21" t="n">
-        <v>285.7895037104463</v>
+        <v>462.7128958003924</v>
       </c>
       <c r="L21" t="n">
-        <v>489.4535701883733</v>
+        <v>666.3769622783195</v>
       </c>
       <c r="M21" t="n">
-        <v>730.2654206326902</v>
+        <v>907.1888127226364</v>
       </c>
       <c r="N21" t="n">
-        <v>979.7922489990522</v>
+        <v>1156.715641088999</v>
       </c>
       <c r="O21" t="n">
-        <v>1204.449831211625</v>
+        <v>1381.373223301572</v>
       </c>
       <c r="P21" t="n">
-        <v>1381.615723834994</v>
+        <v>1558.539115924941</v>
       </c>
       <c r="Q21" t="n">
-        <v>1774.31345419543</v>
+        <v>1668.857953910524</v>
       </c>
       <c r="R21" t="n">
         <v>1815.489017493114</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>618.7359992561783</v>
+        <v>557.3174353506882</v>
       </c>
       <c r="C22" t="n">
-        <v>446.7634361350943</v>
+        <v>557.3174353506882</v>
       </c>
       <c r="D22" t="n">
-        <v>446.7634361350943</v>
+        <v>557.3174353506882</v>
       </c>
       <c r="E22" t="n">
-        <v>280.5552302879478</v>
+        <v>391.1092295035418</v>
       </c>
       <c r="F22" t="n">
-        <v>280.5552302879478</v>
+        <v>219.2474552781022</v>
       </c>
       <c r="G22" t="n">
-        <v>115.1884230924669</v>
+        <v>178.0713837697589</v>
       </c>
       <c r="H22" t="n">
-        <v>115.1884230924669</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I22" t="n">
-        <v>42.18946923301056</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="J22" t="n">
-        <v>161.3628905938623</v>
+        <v>83.44117394564147</v>
       </c>
       <c r="K22" t="n">
-        <v>241.9705096995575</v>
+        <v>411.3314021653588</v>
       </c>
       <c r="L22" t="n">
-        <v>726.3690956406916</v>
+        <v>519.3410945153279</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.463777399197</v>
+        <v>1041.435776273834</v>
       </c>
       <c r="N22" t="n">
-        <v>1361.430745756095</v>
+        <v>1154.402744630732</v>
       </c>
       <c r="O22" t="n">
-        <v>1840.175472621446</v>
+        <v>1633.147471496083</v>
       </c>
       <c r="P22" t="n">
-        <v>2060.791182666785</v>
+        <v>1909.417685288887</v>
       </c>
       <c r="Q22" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="R22" t="n">
-        <v>2109.473461650528</v>
+        <v>2102.459791754789</v>
       </c>
       <c r="S22" t="n">
-        <v>2079.191920544858</v>
+        <v>2102.459791754789</v>
       </c>
       <c r="T22" t="n">
-        <v>1839.655994405621</v>
+        <v>1862.923865615552</v>
       </c>
       <c r="U22" t="n">
-        <v>1559.520100224668</v>
+        <v>1582.787971434599</v>
       </c>
       <c r="V22" t="n">
-        <v>1277.808632832697</v>
+        <v>1301.076504042628</v>
       </c>
       <c r="W22" t="n">
-        <v>1277.808632832697</v>
+        <v>1026.224100215141</v>
       </c>
       <c r="X22" t="n">
-        <v>1035.244736278502</v>
+        <v>783.6602036609462</v>
       </c>
       <c r="Y22" t="n">
-        <v>808.901967968244</v>
+        <v>557.3174353506882</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1704.136191605419</v>
+        <v>1355.592697077126</v>
       </c>
       <c r="C23" t="n">
-        <v>1277.235461618719</v>
+        <v>1147.213229085852</v>
       </c>
       <c r="D23" t="n">
-        <v>853.9428408037197</v>
+        <v>1147.213229085852</v>
       </c>
       <c r="E23" t="n">
-        <v>722.0890472752521</v>
+        <v>1147.213229085852</v>
       </c>
       <c r="F23" t="n">
         <v>722.0890472752521</v>
@@ -5986,16 +5986,16 @@
         <v>42.18946923301058</v>
       </c>
       <c r="I23" t="n">
-        <v>82.97064708758398</v>
+        <v>82.97064708758353</v>
       </c>
       <c r="J23" t="n">
-        <v>218.9221049399282</v>
+        <v>218.9221049399277</v>
       </c>
       <c r="K23" t="n">
-        <v>430.9231076957185</v>
+        <v>430.9231076957182</v>
       </c>
       <c r="L23" t="n">
-        <v>699.9256343271986</v>
+        <v>699.9256343271984</v>
       </c>
       <c r="M23" t="n">
         <v>1004.38906002729</v>
@@ -6004,10 +6004,10 @@
         <v>1314.52876612348</v>
       </c>
       <c r="O23" t="n">
-        <v>1605.217916110744</v>
+        <v>1605.217916110745</v>
       </c>
       <c r="P23" t="n">
-        <v>1847.70796765412</v>
+        <v>1847.707967654121</v>
       </c>
       <c r="Q23" t="n">
         <v>2021.979826295251</v>
@@ -6025,16 +6025,16 @@
         <v>2109.473461650529</v>
       </c>
       <c r="V23" t="n">
-        <v>2109.473461650529</v>
+        <v>1751.984046776779</v>
       </c>
       <c r="W23" t="n">
-        <v>2109.473461650529</v>
+        <v>1355.592697077126</v>
       </c>
       <c r="X23" t="n">
-        <v>2109.473461650529</v>
+        <v>1355.592697077126</v>
       </c>
       <c r="Y23" t="n">
-        <v>1704.136191605419</v>
+        <v>1355.592697077126</v>
       </c>
     </row>
     <row r="24">
@@ -6059,31 +6059,31 @@
         <v>178.3029715687193</v>
       </c>
       <c r="G24" t="n">
-        <v>85.31098196411675</v>
+        <v>85.31098196411676</v>
       </c>
       <c r="H24" t="n">
         <v>42.18946923301058</v>
       </c>
       <c r="I24" t="n">
-        <v>85.46560251410961</v>
+        <v>62.00829666969779</v>
       </c>
       <c r="J24" t="n">
-        <v>163.3794593197289</v>
+        <v>139.9221534753171</v>
       </c>
       <c r="K24" t="n">
-        <v>309.2468095548581</v>
+        <v>285.7895037104464</v>
       </c>
       <c r="L24" t="n">
-        <v>771.8324625632262</v>
+        <v>489.4535701883735</v>
       </c>
       <c r="M24" t="n">
-        <v>1012.644313007543</v>
+        <v>730.2654206326904</v>
       </c>
       <c r="N24" t="n">
-        <v>1262.171141373905</v>
+        <v>979.7922489990526</v>
       </c>
       <c r="O24" t="n">
-        <v>1486.828723586478</v>
+        <v>1204.449831211626</v>
       </c>
       <c r="P24" t="n">
         <v>1663.994616209847</v>
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>735.2293147312703</v>
+        <v>219.5431938918629</v>
       </c>
       <c r="C25" t="n">
-        <v>563.2567516101863</v>
+        <v>219.5431938918629</v>
       </c>
       <c r="D25" t="n">
-        <v>399.939978736957</v>
+        <v>219.5431938918629</v>
       </c>
       <c r="E25" t="n">
-        <v>287.0501973179065</v>
+        <v>219.5431938918629</v>
       </c>
       <c r="F25" t="n">
-        <v>115.188423092467</v>
+        <v>207.5562764284915</v>
       </c>
       <c r="G25" t="n">
-        <v>115.188423092467</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="H25" t="n">
-        <v>115.188423092467</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I25" t="n">
         <v>42.18946923301058</v>
       </c>
       <c r="J25" t="n">
-        <v>83.44117394564142</v>
+        <v>83.44117394564147</v>
       </c>
       <c r="K25" t="n">
-        <v>164.0487930513366</v>
+        <v>164.0487930513367</v>
       </c>
       <c r="L25" t="n">
-        <v>272.0584854013057</v>
+        <v>648.4473789924708</v>
       </c>
       <c r="M25" t="n">
-        <v>794.1531671598116</v>
+        <v>1170.542060750977</v>
       </c>
       <c r="N25" t="n">
-        <v>1185.928590531125</v>
+        <v>1498.684795104433</v>
       </c>
       <c r="O25" t="n">
-        <v>1664.673317396476</v>
+        <v>1977.429521969784</v>
       </c>
       <c r="P25" t="n">
         <v>2060.791182666786</v>
@@ -6171,28 +6171,28 @@
         <v>2109.473461650529</v>
       </c>
       <c r="R25" t="n">
-        <v>2102.459791754789</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S25" t="n">
-        <v>1947.837849112289</v>
+        <v>1954.85151900803</v>
       </c>
       <c r="T25" t="n">
-        <v>1708.301922973052</v>
+        <v>1715.315592868792</v>
       </c>
       <c r="U25" t="n">
-        <v>1708.301922973052</v>
+        <v>1435.17969868784</v>
       </c>
       <c r="V25" t="n">
-        <v>1426.590455581081</v>
+        <v>1153.468231295868</v>
       </c>
       <c r="W25" t="n">
-        <v>1151.738051753594</v>
+        <v>878.6158274683814</v>
       </c>
       <c r="X25" t="n">
-        <v>1151.738051753594</v>
+        <v>636.0519309141865</v>
       </c>
       <c r="Y25" t="n">
-        <v>925.395283443336</v>
+        <v>409.7091626039286</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>754.7067913628919</v>
+        <v>1225.141520684265</v>
       </c>
       <c r="C26" t="n">
-        <v>754.7067913628919</v>
+        <v>1225.141520684265</v>
       </c>
       <c r="D26" t="n">
-        <v>754.7067913628919</v>
+        <v>1225.141520684265</v>
       </c>
       <c r="E26" t="n">
-        <v>722.0890472752521</v>
+        <v>869.6682488355227</v>
       </c>
       <c r="F26" t="n">
-        <v>722.0890472752521</v>
+        <v>444.544067024923</v>
       </c>
       <c r="G26" t="n">
-        <v>319.7344494833398</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="H26" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I26" t="n">
-        <v>82.97064708758364</v>
+        <v>82.97064708758353</v>
       </c>
       <c r="J26" t="n">
-        <v>218.9221049399274</v>
+        <v>218.9221049399277</v>
       </c>
       <c r="K26" t="n">
-        <v>430.9231076957179</v>
+        <v>430.9231076957183</v>
       </c>
       <c r="L26" t="n">
-        <v>699.9256343271979</v>
+        <v>699.9256343271984</v>
       </c>
       <c r="M26" t="n">
-        <v>1004.389060027289</v>
+        <v>1004.38906002729</v>
       </c>
       <c r="N26" t="n">
         <v>1314.52876612348</v>
@@ -6247,31 +6247,31 @@
         <v>1847.70796765412</v>
       </c>
       <c r="Q26" t="n">
-        <v>2021.97982629525</v>
+        <v>2021.979826295251</v>
       </c>
       <c r="R26" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S26" t="n">
-        <v>2050.327155020903</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="T26" t="n">
-        <v>1838.088577933628</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="U26" t="n">
-        <v>1579.892425699532</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="V26" t="n">
-        <v>1579.892425699532</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="W26" t="n">
-        <v>1579.892425699532</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="X26" t="n">
-        <v>1579.892425699532</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="Y26" t="n">
-        <v>1174.555155654422</v>
+        <v>1644.989884975795</v>
       </c>
     </row>
     <row r="27">
@@ -6296,37 +6296,37 @@
         <v>178.3029715687193</v>
       </c>
       <c r="G27" t="n">
-        <v>85.31098196411673</v>
+        <v>85.31098196411676</v>
       </c>
       <c r="H27" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I27" t="n">
-        <v>62.00829666969776</v>
+        <v>85.46560251410963</v>
       </c>
       <c r="J27" t="n">
-        <v>139.9221534753171</v>
+        <v>316.8455455652631</v>
       </c>
       <c r="K27" t="n">
-        <v>285.7895037104464</v>
+        <v>462.7128958003925</v>
       </c>
       <c r="L27" t="n">
-        <v>489.4535701883734</v>
+        <v>666.3769622783195</v>
       </c>
       <c r="M27" t="n">
-        <v>730.2654206326902</v>
+        <v>907.1888127226364</v>
       </c>
       <c r="N27" t="n">
-        <v>979.7922489990522</v>
+        <v>1156.715641088999</v>
       </c>
       <c r="O27" t="n">
-        <v>1204.449831211625</v>
+        <v>1381.373223301572</v>
       </c>
       <c r="P27" t="n">
-        <v>1663.994616209847</v>
+        <v>1558.539115924941</v>
       </c>
       <c r="Q27" t="n">
-        <v>1774.31345419543</v>
+        <v>1668.857953910524</v>
       </c>
       <c r="R27" t="n">
         <v>1815.489017493114</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.3768855690462</v>
+        <v>615.8445662822611</v>
       </c>
       <c r="C28" t="n">
-        <v>774.3768855690462</v>
+        <v>443.8720031611771</v>
       </c>
       <c r="D28" t="n">
-        <v>611.0601126958169</v>
+        <v>280.5552302879478</v>
       </c>
       <c r="E28" t="n">
-        <v>444.8519068486704</v>
+        <v>280.5552302879478</v>
       </c>
       <c r="F28" t="n">
-        <v>272.9901326232308</v>
+        <v>280.5552302879478</v>
       </c>
       <c r="G28" t="n">
-        <v>251.0703376292153</v>
+        <v>115.188423092467</v>
       </c>
       <c r="H28" t="n">
-        <v>115.1884230924669</v>
+        <v>115.188423092467</v>
       </c>
       <c r="I28" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="J28" t="n">
-        <v>161.3628905938623</v>
+        <v>83.44117394564147</v>
       </c>
       <c r="K28" t="n">
-        <v>322.7789913586934</v>
+        <v>164.0487930513367</v>
       </c>
       <c r="L28" t="n">
-        <v>807.1775772998275</v>
+        <v>465.5902221471493</v>
       </c>
       <c r="M28" t="n">
-        <v>921.5881247963281</v>
+        <v>987.6849039056553</v>
       </c>
       <c r="N28" t="n">
-        <v>1034.555093153226</v>
+        <v>1498.684795104433</v>
       </c>
       <c r="O28" t="n">
-        <v>1513.299820018577</v>
+        <v>1977.429521969784</v>
       </c>
       <c r="P28" t="n">
-        <v>1909.417685288886</v>
+        <v>2060.791182666786</v>
       </c>
       <c r="Q28" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="R28" t="n">
-        <v>2102.459791754789</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S28" t="n">
-        <v>1947.837849112289</v>
+        <v>1954.85151900803</v>
       </c>
       <c r="T28" t="n">
-        <v>1708.301922973052</v>
+        <v>1836.764561431703</v>
       </c>
       <c r="U28" t="n">
-        <v>1708.301922973052</v>
+        <v>1556.628667250751</v>
       </c>
       <c r="V28" t="n">
-        <v>1708.301922973052</v>
+        <v>1274.917199858779</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.449519145565</v>
+        <v>1274.917199858779</v>
       </c>
       <c r="X28" t="n">
-        <v>1190.88562259137</v>
+        <v>1032.353303304585</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.5428542811119</v>
+        <v>806.0105349943267</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1295.645188687665</v>
+        <v>1595.904740137182</v>
       </c>
       <c r="C29" t="n">
-        <v>1295.645188687665</v>
+        <v>1169.004010150482</v>
       </c>
       <c r="D29" t="n">
-        <v>1295.645188687665</v>
+        <v>745.7113893354822</v>
       </c>
       <c r="E29" t="n">
-        <v>869.6682488355227</v>
+        <v>319.7344494833398</v>
       </c>
       <c r="F29" t="n">
-        <v>444.544067024923</v>
+        <v>319.7344494833398</v>
       </c>
       <c r="G29" t="n">
-        <v>42.18946923301057</v>
+        <v>319.7344494833398</v>
       </c>
       <c r="H29" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I29" t="n">
-        <v>82.97064708758376</v>
+        <v>82.97064708758367</v>
       </c>
       <c r="J29" t="n">
-        <v>218.922104939928</v>
+        <v>218.9221049399277</v>
       </c>
       <c r="K29" t="n">
-        <v>430.9231076957185</v>
+        <v>430.9231076957182</v>
       </c>
       <c r="L29" t="n">
         <v>699.9256343271986</v>
@@ -6484,31 +6484,31 @@
         <v>1847.70796765412</v>
       </c>
       <c r="Q29" t="n">
-        <v>2021.97982629525</v>
+        <v>2021.979826295251</v>
       </c>
       <c r="R29" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S29" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="T29" t="n">
-        <v>1897.234884563253</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="U29" t="n">
-        <v>1692.036538387318</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="V29" t="n">
-        <v>1692.036538387318</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="W29" t="n">
-        <v>1295.645188687665</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="X29" t="n">
-        <v>1295.645188687665</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="Y29" t="n">
-        <v>1295.645188687665</v>
+        <v>1644.989884975795</v>
       </c>
     </row>
     <row r="30">
@@ -6533,34 +6533,34 @@
         <v>178.3029715687193</v>
       </c>
       <c r="G30" t="n">
-        <v>85.31098196411673</v>
+        <v>85.31098196411676</v>
       </c>
       <c r="H30" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I30" t="n">
-        <v>85.46560251410961</v>
+        <v>85.46560251410963</v>
       </c>
       <c r="J30" t="n">
-        <v>163.3794593197289</v>
+        <v>316.8455455652631</v>
       </c>
       <c r="K30" t="n">
-        <v>309.2468095548581</v>
+        <v>462.7128958003925</v>
       </c>
       <c r="L30" t="n">
-        <v>512.9108760327852</v>
+        <v>666.3769622783195</v>
       </c>
       <c r="M30" t="n">
-        <v>753.722726477102</v>
+        <v>907.1888127226364</v>
       </c>
       <c r="N30" t="n">
-        <v>1003.249554843464</v>
+        <v>1156.715641088999</v>
       </c>
       <c r="O30" t="n">
-        <v>1227.907137056037</v>
+        <v>1381.373223301572</v>
       </c>
       <c r="P30" t="n">
-        <v>1405.073029679406</v>
+        <v>1558.539115924941</v>
       </c>
       <c r="Q30" t="n">
         <v>1668.857953910524</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>212.5295239961221</v>
+        <v>452.4170045133874</v>
       </c>
       <c r="C31" t="n">
-        <v>42.18946923301057</v>
+        <v>452.4170045133874</v>
       </c>
       <c r="D31" t="n">
-        <v>42.18946923301057</v>
+        <v>452.4170045133874</v>
       </c>
       <c r="E31" t="n">
-        <v>42.18946923301057</v>
+        <v>452.4170045133874</v>
       </c>
       <c r="F31" t="n">
-        <v>42.18946923301057</v>
+        <v>280.5552302879478</v>
       </c>
       <c r="G31" t="n">
-        <v>42.18946923301057</v>
+        <v>115.188423092467</v>
       </c>
       <c r="H31" t="n">
-        <v>42.18946923301057</v>
+        <v>115.188423092467</v>
       </c>
       <c r="I31" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="J31" t="n">
-        <v>161.3628905938623</v>
+        <v>83.44117394564147</v>
       </c>
       <c r="K31" t="n">
-        <v>489.2531188135795</v>
+        <v>411.3314021653588</v>
       </c>
       <c r="L31" t="n">
-        <v>973.6517047547136</v>
+        <v>895.7299881064929</v>
       </c>
       <c r="M31" t="n">
-        <v>1495.746386513219</v>
+        <v>1010.140535602994</v>
       </c>
       <c r="N31" t="n">
-        <v>1725.013622029737</v>
+        <v>1123.107503959891</v>
       </c>
       <c r="O31" t="n">
-        <v>1826.056024591884</v>
+        <v>1601.852230825242</v>
       </c>
       <c r="P31" t="n">
-        <v>1909.417685288886</v>
+        <v>1997.970096095552</v>
       </c>
       <c r="Q31" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="R31" t="n">
-        <v>2102.459791754789</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S31" t="n">
-        <v>1947.837849112289</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="T31" t="n">
-        <v>1708.301922973052</v>
+        <v>1869.937535511292</v>
       </c>
       <c r="U31" t="n">
-        <v>1428.166028792099</v>
+        <v>1589.801641330339</v>
       </c>
       <c r="V31" t="n">
-        <v>1146.454561400128</v>
+        <v>1308.090173938368</v>
       </c>
       <c r="W31" t="n">
-        <v>871.6021575726406</v>
+        <v>1033.237770110881</v>
       </c>
       <c r="X31" t="n">
-        <v>629.0382610184457</v>
+        <v>868.925741535711</v>
       </c>
       <c r="Y31" t="n">
-        <v>402.6954927081878</v>
+        <v>642.5829732254531</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1022.921589080803</v>
+        <v>1630.478790729374</v>
       </c>
       <c r="C32" t="n">
-        <v>1022.921589080803</v>
+        <v>1203.578060742674</v>
       </c>
       <c r="D32" t="n">
-        <v>893.2905908957528</v>
+        <v>780.2854399276746</v>
       </c>
       <c r="E32" t="n">
-        <v>467.3136510436104</v>
+        <v>354.3085000755322</v>
       </c>
       <c r="F32" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="G32" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="H32" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I32" t="n">
-        <v>82.97064708758364</v>
+        <v>82.9706470875837</v>
       </c>
       <c r="J32" t="n">
         <v>218.9221049399277</v>
       </c>
       <c r="K32" t="n">
-        <v>430.9231076957179</v>
+        <v>430.9231076957182</v>
       </c>
       <c r="L32" t="n">
-        <v>699.9256343271979</v>
+        <v>699.9256343271984</v>
       </c>
       <c r="M32" t="n">
-        <v>1004.389060027289</v>
+        <v>1004.38906002729</v>
       </c>
       <c r="N32" t="n">
         <v>1314.52876612348</v>
@@ -6721,31 +6721,31 @@
         <v>1847.70796765412</v>
       </c>
       <c r="Q32" t="n">
-        <v>2021.97982629525</v>
+        <v>2021.979826295251</v>
       </c>
       <c r="R32" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S32" t="n">
-        <v>2050.327155020903</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="T32" t="n">
-        <v>2050.327155020903</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="U32" t="n">
-        <v>1792.131002786807</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="V32" t="n">
-        <v>1434.641587913056</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="W32" t="n">
-        <v>1434.641587913056</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="X32" t="n">
-        <v>1022.921589080803</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="Y32" t="n">
-        <v>1022.921589080803</v>
+        <v>2050.327155020904</v>
       </c>
     </row>
     <row r="33">
@@ -6770,37 +6770,37 @@
         <v>178.3029715687193</v>
       </c>
       <c r="G33" t="n">
-        <v>85.31098196411673</v>
+        <v>85.31098196411676</v>
       </c>
       <c r="H33" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I33" t="n">
-        <v>85.46560251410961</v>
+        <v>62.00829666969779</v>
       </c>
       <c r="J33" t="n">
-        <v>163.3794593197289</v>
+        <v>422.301045850169</v>
       </c>
       <c r="K33" t="n">
-        <v>309.2468095548581</v>
+        <v>568.1683960852984</v>
       </c>
       <c r="L33" t="n">
-        <v>512.9108760327852</v>
+        <v>771.8324625632254</v>
       </c>
       <c r="M33" t="n">
-        <v>907.1888127226371</v>
+        <v>1012.644313007542</v>
       </c>
       <c r="N33" t="n">
-        <v>1156.715641088999</v>
+        <v>1262.171141373904</v>
       </c>
       <c r="O33" t="n">
-        <v>1381.373223301572</v>
+        <v>1486.828723586478</v>
       </c>
       <c r="P33" t="n">
-        <v>1558.539115924941</v>
+        <v>1663.994616209847</v>
       </c>
       <c r="Q33" t="n">
-        <v>1668.857953910524</v>
+        <v>1774.31345419543</v>
       </c>
       <c r="R33" t="n">
         <v>1815.489017493114</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.797507032139</v>
+        <v>790.5977734816179</v>
       </c>
       <c r="C34" t="n">
-        <v>844.8249439110551</v>
+        <v>618.6252103605339</v>
       </c>
       <c r="D34" t="n">
-        <v>681.5081710378258</v>
+        <v>618.6252103605339</v>
       </c>
       <c r="E34" t="n">
-        <v>515.2999651906794</v>
+        <v>452.4170045133874</v>
       </c>
       <c r="F34" t="n">
-        <v>343.4381909652398</v>
+        <v>280.5552302879478</v>
       </c>
       <c r="G34" t="n">
-        <v>178.0713837697589</v>
+        <v>115.188423092467</v>
       </c>
       <c r="H34" t="n">
-        <v>42.18946923301057</v>
+        <v>115.188423092467</v>
       </c>
       <c r="I34" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="J34" t="n">
-        <v>161.3628905938623</v>
+        <v>83.44117394564147</v>
       </c>
       <c r="K34" t="n">
-        <v>489.2531188135795</v>
+        <v>164.0487930513367</v>
       </c>
       <c r="L34" t="n">
-        <v>973.6517047547136</v>
+        <v>560.5181518358472</v>
       </c>
       <c r="M34" t="n">
-        <v>1088.062252251214</v>
+        <v>674.9286993323478</v>
       </c>
       <c r="N34" t="n">
-        <v>1599.062143449992</v>
+        <v>1185.928590531126</v>
       </c>
       <c r="O34" t="n">
-        <v>1826.056024591884</v>
+        <v>1664.673317396476</v>
       </c>
       <c r="P34" t="n">
-        <v>1909.417685288886</v>
+        <v>2060.791182666786</v>
       </c>
       <c r="Q34" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="R34" t="n">
-        <v>2102.459791754789</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S34" t="n">
-        <v>1947.837849112289</v>
+        <v>1964.058737024861</v>
       </c>
       <c r="T34" t="n">
-        <v>1708.301922973052</v>
+        <v>1724.522810885623</v>
       </c>
       <c r="U34" t="n">
-        <v>1428.166028792099</v>
+        <v>1724.522810885623</v>
       </c>
       <c r="V34" t="n">
-        <v>1146.454561400128</v>
+        <v>1724.522810885623</v>
       </c>
       <c r="W34" t="n">
-        <v>1016.797507032139</v>
+        <v>1449.670407058136</v>
       </c>
       <c r="X34" t="n">
-        <v>1016.797507032139</v>
+        <v>1207.106510503942</v>
       </c>
       <c r="Y34" t="n">
-        <v>1016.797507032139</v>
+        <v>980.7637421936836</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1653.93580532125</v>
+        <v>871.4447970116229</v>
       </c>
       <c r="C35" t="n">
-        <v>1653.93580532125</v>
+        <v>444.544067024923</v>
       </c>
       <c r="D35" t="n">
-        <v>1230.64318450625</v>
+        <v>444.544067024923</v>
       </c>
       <c r="E35" t="n">
-        <v>804.666244654108</v>
+        <v>444.544067024923</v>
       </c>
       <c r="F35" t="n">
-        <v>379.5420628435082</v>
+        <v>444.544067024923</v>
       </c>
       <c r="G35" t="n">
-        <v>319.7344494833398</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="H35" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I35" t="n">
         <v>82.97064708758376</v>
       </c>
       <c r="J35" t="n">
-        <v>218.922104939928</v>
+        <v>218.9221049399277</v>
       </c>
       <c r="K35" t="n">
-        <v>430.9231076957185</v>
+        <v>430.9231076957182</v>
       </c>
       <c r="L35" t="n">
-        <v>699.9256343271986</v>
+        <v>699.9256343271984</v>
       </c>
       <c r="M35" t="n">
         <v>1004.38906002729</v>
@@ -6955,34 +6955,34 @@
         <v>1605.217916110744</v>
       </c>
       <c r="P35" t="n">
-        <v>1847.70796765412</v>
+        <v>1847.707967654121</v>
       </c>
       <c r="Q35" t="n">
-        <v>2021.97982629525</v>
+        <v>2021.979826295251</v>
       </c>
       <c r="R35" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S35" t="n">
-        <v>2050.327155020903</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="T35" t="n">
-        <v>2050.327155020903</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="U35" t="n">
-        <v>2050.327155020903</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="V35" t="n">
-        <v>2050.327155020903</v>
+        <v>1751.984046776779</v>
       </c>
       <c r="W35" t="n">
-        <v>1653.93580532125</v>
+        <v>1355.592697077126</v>
       </c>
       <c r="X35" t="n">
-        <v>1653.93580532125</v>
+        <v>1291.293161303153</v>
       </c>
       <c r="Y35" t="n">
-        <v>1653.93580532125</v>
+        <v>1291.293161303153</v>
       </c>
     </row>
     <row r="36">
@@ -7007,25 +7007,25 @@
         <v>178.3029715687193</v>
       </c>
       <c r="G36" t="n">
-        <v>85.31098196411673</v>
+        <v>85.31098196411676</v>
       </c>
       <c r="H36" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I36" t="n">
-        <v>62.00829666969776</v>
+        <v>85.46560251410963</v>
       </c>
       <c r="J36" t="n">
-        <v>139.9221534753171</v>
+        <v>316.8455455652631</v>
       </c>
       <c r="K36" t="n">
-        <v>285.7895037104464</v>
+        <v>462.7128958003925</v>
       </c>
       <c r="L36" t="n">
-        <v>666.3769622783202</v>
+        <v>666.3769622783195</v>
       </c>
       <c r="M36" t="n">
-        <v>907.1888127226371</v>
+        <v>907.1888127226364</v>
       </c>
       <c r="N36" t="n">
         <v>1156.715641088999</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>647.2873608195746</v>
+        <v>717.5988196221615</v>
       </c>
       <c r="C37" t="n">
-        <v>647.2873608195746</v>
+        <v>545.6262565010775</v>
       </c>
       <c r="D37" t="n">
-        <v>483.9705879463453</v>
+        <v>545.6262565010775</v>
       </c>
       <c r="E37" t="n">
-        <v>349.9331579951985</v>
+        <v>379.418050653931</v>
       </c>
       <c r="F37" t="n">
-        <v>178.0713837697589</v>
+        <v>207.5562764284915</v>
       </c>
       <c r="G37" t="n">
-        <v>178.0713837697589</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="H37" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I37" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="J37" t="n">
-        <v>161.3628905938623</v>
+        <v>83.44117394564147</v>
       </c>
       <c r="K37" t="n">
-        <v>241.9705096995575</v>
+        <v>164.0487930513367</v>
       </c>
       <c r="L37" t="n">
-        <v>726.3690956406916</v>
+        <v>648.4473789924708</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.463777399197</v>
+        <v>1170.542060750977</v>
       </c>
       <c r="N37" t="n">
-        <v>1361.430745756095</v>
+        <v>1681.541951949755</v>
       </c>
       <c r="O37" t="n">
-        <v>1664.673317396476</v>
+        <v>1977.429521969784</v>
       </c>
       <c r="P37" t="n">
-        <v>2060.791182666785</v>
+        <v>2060.791182666786</v>
       </c>
       <c r="Q37" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="R37" t="n">
-        <v>2102.459791754789</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S37" t="n">
-        <v>2102.459791754789</v>
+        <v>1954.85151900803</v>
       </c>
       <c r="T37" t="n">
-        <v>1862.923865615551</v>
+        <v>1741.493782495054</v>
       </c>
       <c r="U37" t="n">
-        <v>1862.923865615551</v>
+        <v>1461.357888314101</v>
       </c>
       <c r="V37" t="n">
-        <v>1581.21239822358</v>
+        <v>1461.357888314101</v>
       </c>
       <c r="W37" t="n">
-        <v>1306.359994396093</v>
+        <v>1186.505484486614</v>
       </c>
       <c r="X37" t="n">
-        <v>1063.796097841898</v>
+        <v>943.9415879324195</v>
       </c>
       <c r="Y37" t="n">
-        <v>837.4533295316403</v>
+        <v>717.5988196221615</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1297.421736863765</v>
+        <v>444.544067024923</v>
       </c>
       <c r="C38" t="n">
-        <v>870.5210068770655</v>
+        <v>444.544067024923</v>
       </c>
       <c r="D38" t="n">
-        <v>870.5210068770655</v>
+        <v>444.544067024923</v>
       </c>
       <c r="E38" t="n">
         <v>444.544067024923</v>
@@ -7165,61 +7165,61 @@
         <v>444.544067024923</v>
       </c>
       <c r="G38" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="H38" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I38" t="n">
-        <v>82.97064708758307</v>
+        <v>82.97064708758376</v>
       </c>
       <c r="J38" t="n">
-        <v>218.9221049399273</v>
+        <v>218.9221049399279</v>
       </c>
       <c r="K38" t="n">
-        <v>430.9231076957178</v>
+        <v>430.9231076957183</v>
       </c>
       <c r="L38" t="n">
-        <v>699.9256343271978</v>
+        <v>699.9256343271984</v>
       </c>
       <c r="M38" t="n">
-        <v>1004.389060027289</v>
+        <v>1004.38906002729</v>
       </c>
       <c r="N38" t="n">
-        <v>1314.528766123479</v>
+        <v>1314.52876612348</v>
       </c>
       <c r="O38" t="n">
         <v>1605.217916110744</v>
       </c>
       <c r="P38" t="n">
-        <v>1847.70796765412</v>
+        <v>1847.707967654121</v>
       </c>
       <c r="Q38" t="n">
-        <v>2021.97982629525</v>
+        <v>2021.979826295251</v>
       </c>
       <c r="R38" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S38" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="T38" t="n">
-        <v>1897.234884563253</v>
+        <v>1897.234884563254</v>
       </c>
       <c r="U38" t="n">
-        <v>1693.813086563418</v>
+        <v>1657.992685601939</v>
       </c>
       <c r="V38" t="n">
-        <v>1693.813086563418</v>
+        <v>1657.992685601939</v>
       </c>
       <c r="W38" t="n">
-        <v>1297.421736863765</v>
+        <v>1261.601335902285</v>
       </c>
       <c r="X38" t="n">
-        <v>1297.421736863765</v>
+        <v>849.8813370700327</v>
       </c>
       <c r="Y38" t="n">
-        <v>1297.421736863765</v>
+        <v>444.544067024923</v>
       </c>
     </row>
     <row r="39">
@@ -7244,37 +7244,37 @@
         <v>178.3029715687193</v>
       </c>
       <c r="G39" t="n">
-        <v>85.31098196411673</v>
+        <v>85.31098196411676</v>
       </c>
       <c r="H39" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I39" t="n">
-        <v>85.46560251410961</v>
+        <v>62.00829666969779</v>
       </c>
       <c r="J39" t="n">
-        <v>163.3794593197289</v>
+        <v>139.9221534753171</v>
       </c>
       <c r="K39" t="n">
-        <v>309.2468095548581</v>
+        <v>285.7895037104464</v>
       </c>
       <c r="L39" t="n">
-        <v>512.9108760327852</v>
+        <v>489.4535701883735</v>
       </c>
       <c r="M39" t="n">
-        <v>753.722726477102</v>
+        <v>730.2654206326904</v>
       </c>
       <c r="N39" t="n">
-        <v>1003.249554843464</v>
+        <v>979.7922489990526</v>
       </c>
       <c r="O39" t="n">
-        <v>1227.907137056037</v>
+        <v>1204.449831211626</v>
       </c>
       <c r="P39" t="n">
-        <v>1405.073029679406</v>
+        <v>1558.539115924941</v>
       </c>
       <c r="Q39" t="n">
-        <v>1774.31345419543</v>
+        <v>1668.857953910524</v>
       </c>
       <c r="R39" t="n">
         <v>1815.489017493114</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>974.7652408705071</v>
+        <v>1089.796460891595</v>
       </c>
       <c r="C40" t="n">
         <v>917.8238977705115</v>
@@ -7326,58 +7326,58 @@
         <v>251.0703376292153</v>
       </c>
       <c r="H40" t="n">
-        <v>115.1884230924669</v>
+        <v>115.188423092467</v>
       </c>
       <c r="I40" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="J40" t="n">
         <v>161.3628905938623</v>
       </c>
       <c r="K40" t="n">
-        <v>489.2531188135795</v>
+        <v>489.2531188135796</v>
       </c>
       <c r="L40" t="n">
-        <v>597.2628111635486</v>
+        <v>873.2743564091547</v>
       </c>
       <c r="M40" t="n">
-        <v>711.6733586600492</v>
+        <v>987.6849039056553</v>
       </c>
       <c r="N40" t="n">
-        <v>1222.673249858827</v>
+        <v>1498.684795104433</v>
       </c>
       <c r="O40" t="n">
-        <v>1513.299820018577</v>
+        <v>1977.429521969784</v>
       </c>
       <c r="P40" t="n">
-        <v>1909.417685288886</v>
+        <v>2060.791182666786</v>
       </c>
       <c r="Q40" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="R40" t="n">
         <v>2102.459791754789</v>
       </c>
       <c r="S40" t="n">
-        <v>1947.837849112289</v>
+        <v>1947.83784911229</v>
       </c>
       <c r="T40" t="n">
-        <v>1947.837849112289</v>
+        <v>1947.83784911229</v>
       </c>
       <c r="U40" t="n">
-        <v>1947.837849112289</v>
+        <v>1667.701954931337</v>
       </c>
       <c r="V40" t="n">
-        <v>1666.126381720318</v>
+        <v>1385.990487539366</v>
       </c>
       <c r="W40" t="n">
-        <v>1391.273977892831</v>
+        <v>1111.138083711879</v>
       </c>
       <c r="X40" t="n">
-        <v>1391.273977892831</v>
+        <v>1111.138083711879</v>
       </c>
       <c r="Y40" t="n">
-        <v>1164.931209582573</v>
+        <v>1111.138083711879</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1145.381668090252</v>
+        <v>1218.758791897121</v>
       </c>
       <c r="C41" t="n">
-        <v>1145.381668090252</v>
+        <v>893.2905908957528</v>
       </c>
       <c r="D41" t="n">
-        <v>722.0890472752521</v>
+        <v>893.2905908957528</v>
       </c>
       <c r="E41" t="n">
-        <v>722.0890472752521</v>
+        <v>467.3136510436104</v>
       </c>
       <c r="F41" t="n">
-        <v>722.0890472752521</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="G41" t="n">
-        <v>319.7344494833398</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="H41" t="n">
         <v>42.18946923301058</v>
       </c>
       <c r="I41" t="n">
-        <v>82.97064708758367</v>
+        <v>82.97064708758376</v>
       </c>
       <c r="J41" t="n">
-        <v>218.9221049399277</v>
+        <v>218.9221049399278</v>
       </c>
       <c r="K41" t="n">
-        <v>430.9231076957182</v>
+        <v>430.9231076957183</v>
       </c>
       <c r="L41" t="n">
-        <v>699.9256343271982</v>
+        <v>699.9256343271983</v>
       </c>
       <c r="M41" t="n">
         <v>1004.389060027289</v>
@@ -7426,7 +7426,7 @@
         <v>1314.52876612348</v>
       </c>
       <c r="O41" t="n">
-        <v>1605.217916110744</v>
+        <v>1605.217916110745</v>
       </c>
       <c r="P41" t="n">
         <v>1847.70796765412</v>
@@ -7438,25 +7438,25 @@
         <v>2109.473461650529</v>
       </c>
       <c r="S41" t="n">
-        <v>2109.473461650529</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="T41" t="n">
-        <v>2109.473461650529</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="U41" t="n">
-        <v>2109.473461650529</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="V41" t="n">
-        <v>2109.473461650529</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="W41" t="n">
-        <v>1713.082111950876</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="X41" t="n">
-        <v>1565.230032381782</v>
+        <v>1638.607156188652</v>
       </c>
       <c r="Y41" t="n">
-        <v>1565.230032381782</v>
+        <v>1638.607156188652</v>
       </c>
     </row>
     <row r="42">
@@ -7481,37 +7481,37 @@
         <v>178.3029715687193</v>
       </c>
       <c r="G42" t="n">
-        <v>85.31098196411675</v>
+        <v>85.31098196411676</v>
       </c>
       <c r="H42" t="n">
         <v>42.18946923301058</v>
       </c>
       <c r="I42" t="n">
-        <v>62.00829666969778</v>
+        <v>85.46560251410963</v>
       </c>
       <c r="J42" t="n">
-        <v>139.9221534753171</v>
+        <v>316.8455455652636</v>
       </c>
       <c r="K42" t="n">
-        <v>285.7895037104464</v>
+        <v>462.7128958003929</v>
       </c>
       <c r="L42" t="n">
-        <v>489.4535701883734</v>
+        <v>666.3769622783199</v>
       </c>
       <c r="M42" t="n">
-        <v>730.2654206326903</v>
+        <v>907.1888127226367</v>
       </c>
       <c r="N42" t="n">
-        <v>979.7922489990524</v>
+        <v>1156.715641088999</v>
       </c>
       <c r="O42" t="n">
-        <v>1486.828723586478</v>
+        <v>1381.373223301572</v>
       </c>
       <c r="P42" t="n">
-        <v>1663.994616209847</v>
+        <v>1558.539115924941</v>
       </c>
       <c r="Q42" t="n">
-        <v>1774.31345419543</v>
+        <v>1668.857953910524</v>
       </c>
       <c r="R42" t="n">
         <v>1815.489017493114</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>681.6189599334703</v>
+        <v>219.5431938918629</v>
       </c>
       <c r="C43" t="n">
-        <v>509.6463968123862</v>
+        <v>47.57063077077893</v>
       </c>
       <c r="D43" t="n">
-        <v>509.6463968123862</v>
+        <v>47.57063077077893</v>
       </c>
       <c r="E43" t="n">
-        <v>343.4381909652398</v>
+        <v>47.57063077077893</v>
       </c>
       <c r="F43" t="n">
-        <v>343.4381909652398</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="G43" t="n">
-        <v>178.0713837697589</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="H43" t="n">
         <v>42.18946923301058</v>
@@ -7569,52 +7569,52 @@
         <v>42.18946923301058</v>
       </c>
       <c r="J43" t="n">
-        <v>161.3628905938623</v>
+        <v>83.44117394564145</v>
       </c>
       <c r="K43" t="n">
-        <v>241.9705096995576</v>
+        <v>164.0487930513367</v>
       </c>
       <c r="L43" t="n">
-        <v>726.3690956406917</v>
+        <v>465.5902221471493</v>
       </c>
       <c r="M43" t="n">
-        <v>840.7796431371924</v>
+        <v>987.6849039056553</v>
       </c>
       <c r="N43" t="n">
-        <v>1351.77953433597</v>
+        <v>1498.684795104433</v>
       </c>
       <c r="O43" t="n">
-        <v>1826.056024591885</v>
+        <v>1977.429521969784</v>
       </c>
       <c r="P43" t="n">
-        <v>1909.417685288887</v>
+        <v>2060.791182666786</v>
       </c>
       <c r="Q43" t="n">
         <v>2109.473461650529</v>
       </c>
       <c r="R43" t="n">
-        <v>2102.459791754789</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S43" t="n">
-        <v>2102.459791754789</v>
+        <v>1954.85151900803</v>
       </c>
       <c r="T43" t="n">
-        <v>1862.923865615552</v>
+        <v>1715.315592868792</v>
       </c>
       <c r="U43" t="n">
-        <v>1862.923865615552</v>
+        <v>1435.17969868784</v>
       </c>
       <c r="V43" t="n">
-        <v>1581.212398223581</v>
+        <v>1153.468231295868</v>
       </c>
       <c r="W43" t="n">
-        <v>1306.359994396093</v>
+        <v>878.6158274683814</v>
       </c>
       <c r="X43" t="n">
-        <v>1063.796097841899</v>
+        <v>636.0519309141865</v>
       </c>
       <c r="Y43" t="n">
-        <v>871.784928645536</v>
+        <v>409.7091626039286</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1049.548689671669</v>
+        <v>1233.269886143542</v>
       </c>
       <c r="C44" t="n">
-        <v>869.6682488355227</v>
+        <v>1233.269886143542</v>
       </c>
       <c r="D44" t="n">
         <v>869.6682488355227</v>
@@ -7645,19 +7645,19 @@
         <v>42.18946923301058</v>
       </c>
       <c r="I44" t="n">
-        <v>82.97064708758376</v>
+        <v>82.9706470875841</v>
       </c>
       <c r="J44" t="n">
-        <v>218.9221049399278</v>
+        <v>218.9221049399281</v>
       </c>
       <c r="K44" t="n">
-        <v>430.9231076957183</v>
+        <v>430.9231076957186</v>
       </c>
       <c r="L44" t="n">
-        <v>699.9256343271983</v>
+        <v>699.9256343271986</v>
       </c>
       <c r="M44" t="n">
-        <v>1004.389060027289</v>
+        <v>1004.38906002729</v>
       </c>
       <c r="N44" t="n">
         <v>1314.52876612348</v>
@@ -7675,25 +7675,25 @@
         <v>2109.473461650529</v>
       </c>
       <c r="S44" t="n">
-        <v>2109.473461650529</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="T44" t="n">
-        <v>2109.473461650529</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="U44" t="n">
-        <v>1851.277309416432</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="V44" t="n">
-        <v>1851.277309416432</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="W44" t="n">
-        <v>1454.885959716779</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="X44" t="n">
-        <v>1454.885959716779</v>
+        <v>1638.607156188652</v>
       </c>
       <c r="Y44" t="n">
-        <v>1049.548689671669</v>
+        <v>1233.269886143542</v>
       </c>
     </row>
     <row r="45">
@@ -7718,28 +7718,28 @@
         <v>178.3029715687193</v>
       </c>
       <c r="G45" t="n">
-        <v>85.31098196411675</v>
+        <v>85.31098196411676</v>
       </c>
       <c r="H45" t="n">
         <v>42.18946923301058</v>
       </c>
       <c r="I45" t="n">
-        <v>62.00829666969778</v>
+        <v>85.46560251410963</v>
       </c>
       <c r="J45" t="n">
-        <v>139.9221534753171</v>
+        <v>316.8455455652636</v>
       </c>
       <c r="K45" t="n">
-        <v>285.7895037104464</v>
+        <v>462.7128958003929</v>
       </c>
       <c r="L45" t="n">
-        <v>489.4535701883734</v>
+        <v>666.3769622783199</v>
       </c>
       <c r="M45" t="n">
-        <v>730.2654206326903</v>
+        <v>907.1888127226367</v>
       </c>
       <c r="N45" t="n">
-        <v>979.7922489990524</v>
+        <v>1156.715641088999</v>
       </c>
       <c r="O45" t="n">
         <v>1381.373223301572</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>752.5678794706751</v>
+        <v>782.0527721294076</v>
       </c>
       <c r="C46" t="n">
-        <v>580.595316349591</v>
+        <v>610.0802090083235</v>
       </c>
       <c r="D46" t="n">
-        <v>417.2785434763617</v>
+        <v>446.7634361350943</v>
       </c>
       <c r="E46" t="n">
-        <v>251.0703376292153</v>
+        <v>280.5552302879478</v>
       </c>
       <c r="F46" t="n">
-        <v>251.0703376292153</v>
+        <v>280.5552302879478</v>
       </c>
       <c r="G46" t="n">
-        <v>251.0703376292153</v>
+        <v>115.188423092467</v>
       </c>
       <c r="H46" t="n">
         <v>115.188423092467</v>
@@ -7806,22 +7806,22 @@
         <v>42.18946923301058</v>
       </c>
       <c r="J46" t="n">
-        <v>161.3628905938623</v>
+        <v>83.44117394564145</v>
       </c>
       <c r="K46" t="n">
-        <v>241.9705096995576</v>
+        <v>164.0487930513367</v>
       </c>
       <c r="L46" t="n">
-        <v>465.590222147149</v>
+        <v>648.4473789924708</v>
       </c>
       <c r="M46" t="n">
-        <v>987.6849039056549</v>
+        <v>762.8579264889714</v>
       </c>
       <c r="N46" t="n">
-        <v>1498.684795104433</v>
+        <v>1273.85781768775</v>
       </c>
       <c r="O46" t="n">
-        <v>1977.429521969784</v>
+        <v>1752.6025445531</v>
       </c>
       <c r="P46" t="n">
         <v>2060.791182666786</v>
@@ -7830,28 +7830,28 @@
         <v>2109.473461650529</v>
       </c>
       <c r="R46" t="n">
-        <v>2109.473461650529</v>
+        <v>2102.459791754789</v>
       </c>
       <c r="S46" t="n">
-        <v>2109.473461650529</v>
+        <v>1947.83784911229</v>
       </c>
       <c r="T46" t="n">
-        <v>1869.937535511292</v>
+        <v>1708.301922973053</v>
       </c>
       <c r="U46" t="n">
-        <v>1589.801641330339</v>
+        <v>1428.1660287921</v>
       </c>
       <c r="V46" t="n">
-        <v>1308.090173938368</v>
+        <v>1146.454561400129</v>
       </c>
       <c r="W46" t="n">
-        <v>1033.237770110881</v>
+        <v>1146.454561400129</v>
       </c>
       <c r="X46" t="n">
-        <v>1033.237770110881</v>
+        <v>903.8906648459337</v>
       </c>
       <c r="Y46" t="n">
-        <v>942.7338481827408</v>
+        <v>782.0527721294076</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>178.7104970605515</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>285.2312044190423</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>59.76207313981951</v>
       </c>
       <c r="L13" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>411.8021558202073</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O13" t="n">
-        <v>196.8133004625064</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9017,13 +9017,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>261.5369560913535</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>285.2312044190433</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>116.7777980784061</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>411.8021558202073</v>
+        <v>411.8021558202074</v>
       </c>
       <c r="N16" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>381.5174992961649</v>
+        <v>43.91077785856858</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>285.231204419043</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>285.231204419043</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>249.7804132464869</v>
@@ -9333,16 +9333,16 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>213.3618149983002</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>63.45564300124707</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>155.0162487328627</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>285.231204419043</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,16 +9558,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>411.8021558202071</v>
+        <v>411.8021558202074</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -9576,10 +9576,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>138.6404538872092</v>
+        <v>194.8571243391945</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>261.5369560913546</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>285.2312044190422</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9801,19 +9801,19 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
         <v>411.8021558202074</v>
       </c>
       <c r="N25" t="n">
-        <v>281.6247020347636</v>
+        <v>217.3492585823825</v>
       </c>
       <c r="O25" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>155.0162487328628</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>285.2312044190433</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>81.62472894862206</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>380.1908016072373</v>
+        <v>195.4866027735793</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>411.8021558202075</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>155.0162487328628</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>155.0162487328636</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>106.5207073584907</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>249.7804132464869</v>
@@ -10278,19 +10278,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>411.8021558202072</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>117.475017332949</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>63.45564300124707</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>285.2312044190423</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>155.0162487328637</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,13 +10506,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>380.1908016072373</v>
+        <v>291.3734004389307</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -10521,13 +10521,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
-        <v>127.2237157371158</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>155.0162487328628</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>178.7104970605523</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -10752,16 +10752,16 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>411.8021558202072</v>
+        <v>411.8021558202074</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>204.2425950285183</v>
+        <v>196.8133004625069</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>178.7104970605515</v>
       </c>
       <c r="Q39" t="n">
-        <v>261.5369560913543</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10986,7 +10986,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>278.7995406521272</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -10995,13 +10995,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>191.4991591894971</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>155.0162487328633</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>285.2312044190428</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>195.4866027735793</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>411.8021558202075</v>
       </c>
       <c r="N43" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>377.004128983603</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>155.0162487328633</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>178.7104970605521</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11454,16 +11454,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>116.7777980784064</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>411.8021558202074</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>402.0534574160406</v>
@@ -11472,7 +11472,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>227.0979569865494</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1136478495507838</v>
+        <v>0.1136478495507731</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -23269,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>374.7604737642031</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3310518139933</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.55484356332863</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.1161913164022</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6141907117556</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -23323,7 +23323,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>350.8870632704641</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.713139123526</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>50.76124582073939</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>153.0757232160747</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>20.14393396168995</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -23506,7 +23506,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>231.5114120167463</v>
+        <v>371.6778303990428</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.55484356332864</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>210.1161913164022</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6141907117556</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.713139123526</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>6.943533196782482</v>
       </c>
       <c r="S16" t="n">
-        <v>148.5522404457981</v>
+        <v>153.0757232160747</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3345352391432</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>18.13110297116029</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>289.674743860365</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.3310518139933</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.7695304478259</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.55484356332864</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.1161913164022</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6141907117556</v>
+        <v>101.6199281762215</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>18.68361654150243</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>115.0554016090309</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.713139123526</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>72.26896432086181</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23971,19 +23971,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>260.5743088618182</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.3310518139933</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.55484356332864</v>
+        <v>58.55484356332862</v>
       </c>
       <c r="T20" t="n">
-        <v>210.1161913164022</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6141907117556</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>263.7054259951188</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>122.9488283302662</v>
       </c>
       <c r="H22" t="n">
-        <v>134.5230953913808</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>72.26896432086181</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.943533196782489</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>123.0969975214614</v>
+        <v>153.0757232160747</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24208,16 +24208,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>216.3360493754719</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>291.1819148604382</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.55484356332865</v>
+        <v>58.55484356332863</v>
       </c>
       <c r="T23" t="n">
         <v>210.1161913164022</v>
@@ -24265,16 +24265,16 @@
         <v>255.6141907117556</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>52.78524018381503</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>158.2761081944474</v>
       </c>
       <c r="G25" t="n">
-        <v>163.713139123526</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>134.5230953913808</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>72.26896432086181</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>6.943533196782482</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3345352391432</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24451,16 +24451,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>389.4256038068577</v>
+        <v>69.79863132336658</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.7695304478259</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.1161913164022</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6141907117556</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>142.0125420794507</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>6.943533196782482</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>120.2344788772819</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3345352391432</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>367.055587258388</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.3310518139933</v>
       </c>
       <c r="H29" t="n">
-        <v>274.7695304478259</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.55484356332864</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.1161913164022</v>
       </c>
       <c r="U29" t="n">
-        <v>52.46782799757992</v>
+        <v>255.6141907117556</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.616183274392739</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -24849,16 +24849,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.713139123526</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>134.5230953913808</v>
       </c>
       <c r="I31" t="n">
-        <v>72.26896432086181</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>6.943533196782482</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>153.0757232160747</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>77.46934929923466</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>290.7250064036496</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>111.8750994583974</v>
       </c>
       <c r="G32" t="n">
         <v>398.3310518139933</v>
@@ -24973,16 +24973,16 @@
         <v>210.1161913164022</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6141907117556</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I34" t="n">
-        <v>72.26896432086181</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>6.943533196782482</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>9.115145836662691</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3345352391432</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>143.7433959649035</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>339.1215145874265</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.7695304478259</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>58.55484356332863</v>
       </c>
       <c r="T35" t="n">
         <v>210.1161913164022</v>
@@ -25213,13 +25213,13 @@
         <v>255.6141907117556</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>343.9462584276971</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>31.84906813703964</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.713139123526</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I37" t="n">
         <v>72.26896432086181</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.943533196782482</v>
       </c>
       <c r="S37" t="n">
-        <v>153.0757232160747</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>25.91640772999909</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3345352391432</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25393,13 +25393,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.55484356332864</v>
+        <v>58.55484356332863</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>54.22661069191898</v>
+        <v>18.76441374005299</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>167.1361024328644</v>
       </c>
       <c r="C40" t="n">
-        <v>113.8809078208775</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>237.1405668778449</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3345352391432</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>100.4182036954779</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.3310518139933</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.7695304478259</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.55484356332864</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>210.1161913164022</v>
@@ -25690,10 +25690,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>261.2292400705273</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25794,16 +25794,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>164.8158065607945</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.713139123526</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I43" t="n">
         <v>72.26896432086181</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.943533196782482</v>
       </c>
       <c r="S43" t="n">
-        <v>153.0757232160747</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3345352391432</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>33.98828312275626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,10 +25867,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>244.5500862590478</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>59.09407367191068</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.55484356332864</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>210.1161913164022</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.6141907117556</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.713139123526</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.943533196782482</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>153.0757232160747</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>134.480457918297</v>
+        <v>103.4598268377946</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>348618.7437625236</v>
+        <v>348618.7437625237</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>348618.7437625236</v>
+        <v>348618.7437625237</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>348618.7437625235</v>
+        <v>348618.7437625237</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>348618.7437625236</v>
+        <v>348618.7437625237</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>348618.7437625236</v>
+        <v>348618.7437625237</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>348618.7437625236</v>
+        <v>348618.7437625237</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>348618.7437625236</v>
+        <v>348618.7437625237</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>348618.7437625236</v>
+        <v>348618.7437625237</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>348618.7437625235</v>
+        <v>348618.7437625237</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>459016.6182600352</v>
+        <v>459016.6182600351</v>
       </c>
       <c r="C2" t="n">
-        <v>459017.3604144076</v>
+        <v>459017.3604144077</v>
       </c>
       <c r="D2" t="n">
-        <v>459018.1106995047</v>
+        <v>459018.1106995048</v>
       </c>
       <c r="E2" t="n">
+        <v>270597.1217024815</v>
+      </c>
+      <c r="F2" t="n">
         <v>270597.1217024814</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>270597.1217024815</v>
-      </c>
-      <c r="G2" t="n">
-        <v>270597.1217024814</v>
       </c>
       <c r="H2" t="n">
         <v>270597.1217024814</v>
@@ -26340,13 +26340,13 @@
         <v>270597.1217024815</v>
       </c>
       <c r="K2" t="n">
-        <v>270597.1217024814</v>
+        <v>270597.1217024815</v>
       </c>
       <c r="L2" t="n">
-        <v>270597.1217024813</v>
+        <v>270597.1217024815</v>
       </c>
       <c r="M2" t="n">
-        <v>270597.1217024814</v>
+        <v>270597.1217024815</v>
       </c>
       <c r="N2" t="n">
         <v>270597.1217024815</v>
@@ -26355,7 +26355,7 @@
         <v>270597.1217024815</v>
       </c>
       <c r="P2" t="n">
-        <v>270597.1217024814</v>
+        <v>270597.1217024815</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>40837.35405472643</v>
       </c>
       <c r="C3" t="n">
-        <v>2639.872094278531</v>
+        <v>2639.872094278538</v>
       </c>
       <c r="D3" t="n">
-        <v>2509.979145161255</v>
+        <v>2509.979145161261</v>
       </c>
       <c r="E3" t="n">
         <v>511351.5492986417</v>
@@ -26426,34 +26426,34 @@
         <v>310927.8361259664</v>
       </c>
       <c r="E4" t="n">
+        <v>27723.08374455503</v>
+      </c>
+      <c r="F4" t="n">
+        <v>27723.08374455503</v>
+      </c>
+      <c r="G4" t="n">
+        <v>27723.08374455505</v>
+      </c>
+      <c r="H4" t="n">
         <v>27723.08374455502</v>
       </c>
-      <c r="F4" t="n">
-        <v>27723.08374455504</v>
-      </c>
-      <c r="G4" t="n">
-        <v>27723.08374455504</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>27723.08374455503</v>
       </c>
-      <c r="I4" t="n">
-        <v>27723.08374455505</v>
-      </c>
       <c r="J4" t="n">
-        <v>27723.08374455504</v>
+        <v>27723.08374455503</v>
       </c>
       <c r="K4" t="n">
-        <v>27723.08374455504</v>
+        <v>27723.08374455503</v>
       </c>
       <c r="L4" t="n">
-        <v>27723.08374455505</v>
+        <v>27723.08374455503</v>
       </c>
       <c r="M4" t="n">
-        <v>27723.08374455504</v>
+        <v>27723.08374455503</v>
       </c>
       <c r="N4" t="n">
-        <v>27723.08374455505</v>
+        <v>27723.08374455503</v>
       </c>
       <c r="O4" t="n">
         <v>27723.08374455504</v>
@@ -26478,40 +26478,40 @@
         <v>34678.56176909891</v>
       </c>
       <c r="E5" t="n">
-        <v>42717.63957270507</v>
+        <v>42717.63957270508</v>
       </c>
       <c r="F5" t="n">
-        <v>42717.63957270506</v>
+        <v>42717.63957270508</v>
       </c>
       <c r="G5" t="n">
-        <v>42717.63957270506</v>
+        <v>42717.63957270508</v>
       </c>
       <c r="H5" t="n">
-        <v>42717.63957270505</v>
+        <v>42717.63957270508</v>
       </c>
       <c r="I5" t="n">
-        <v>42717.63957270507</v>
+        <v>42717.63957270508</v>
       </c>
       <c r="J5" t="n">
-        <v>42717.63957270506</v>
+        <v>42717.63957270508</v>
       </c>
       <c r="K5" t="n">
-        <v>42717.63957270506</v>
+        <v>42717.63957270508</v>
       </c>
       <c r="L5" t="n">
-        <v>42717.63957270506</v>
+        <v>42717.63957270508</v>
       </c>
       <c r="M5" t="n">
-        <v>42717.63957270506</v>
+        <v>42717.63957270508</v>
       </c>
       <c r="N5" t="n">
-        <v>42717.63957270506</v>
+        <v>42717.63957270508</v>
       </c>
       <c r="O5" t="n">
-        <v>42717.63957270507</v>
+        <v>42717.63957270508</v>
       </c>
       <c r="P5" t="n">
-        <v>42717.63957270507</v>
+        <v>42717.63957270508</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70860.09287490402</v>
+        <v>70838.41313693866</v>
       </c>
       <c r="C6" t="n">
-        <v>109928.0882159884</v>
+        <v>109906.4107972555</v>
       </c>
       <c r="D6" t="n">
-        <v>110901.7336592781</v>
+        <v>110880.0585851862</v>
       </c>
       <c r="E6" t="n">
-        <v>-311195.1509134204</v>
+        <v>-311805.6415781279</v>
       </c>
       <c r="F6" t="n">
-        <v>200156.3983852214</v>
+        <v>199545.9077205137</v>
       </c>
       <c r="G6" t="n">
-        <v>200156.3983852213</v>
+        <v>199545.9077205137</v>
       </c>
       <c r="H6" t="n">
-        <v>200156.3983852213</v>
+        <v>199545.9077205137</v>
       </c>
       <c r="I6" t="n">
-        <v>200156.3983852214</v>
+        <v>199545.9077205137</v>
       </c>
       <c r="J6" t="n">
-        <v>200156.3983852214</v>
+        <v>199545.9077205138</v>
       </c>
       <c r="K6" t="n">
-        <v>200156.3983852213</v>
+        <v>199545.9077205138</v>
       </c>
       <c r="L6" t="n">
-        <v>200156.3983852212</v>
+        <v>199545.9077205138</v>
       </c>
       <c r="M6" t="n">
-        <v>68734.09225093172</v>
+        <v>68123.60158622412</v>
       </c>
       <c r="N6" t="n">
-        <v>200156.3983852214</v>
+        <v>199545.9077205137</v>
       </c>
       <c r="O6" t="n">
-        <v>200156.3983852214</v>
+        <v>199545.9077205138</v>
       </c>
       <c r="P6" t="n">
-        <v>200156.3983852213</v>
+        <v>199545.9077205138</v>
       </c>
     </row>
   </sheetData>
@@ -26749,31 +26749,31 @@
         <v>488.6992181475704</v>
       </c>
       <c r="F3" t="n">
-        <v>488.6992181475703</v>
+        <v>488.6992181475704</v>
       </c>
       <c r="G3" t="n">
         <v>488.6992181475703</v>
       </c>
       <c r="H3" t="n">
-        <v>488.6992181475703</v>
+        <v>488.6992181475704</v>
       </c>
       <c r="I3" t="n">
-        <v>488.6992181475702</v>
+        <v>488.6992181475704</v>
       </c>
       <c r="J3" t="n">
-        <v>488.6992181475703</v>
+        <v>488.6992181475704</v>
       </c>
       <c r="K3" t="n">
-        <v>488.6992181475703</v>
+        <v>488.6992181475704</v>
       </c>
       <c r="L3" t="n">
-        <v>488.6992181475703</v>
+        <v>488.6992181475704</v>
       </c>
       <c r="M3" t="n">
-        <v>488.6992181475703</v>
+        <v>488.6992181475704</v>
       </c>
       <c r="N3" t="n">
-        <v>488.6992181475703</v>
+        <v>488.6992181475704</v>
       </c>
       <c r="O3" t="n">
         <v>488.6992181475703</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>527.3683654126322</v>
+        <v>527.3683654126323</v>
       </c>
       <c r="F4" t="n">
-        <v>527.3683654126321</v>
+        <v>527.3683654126323</v>
       </c>
       <c r="G4" t="n">
-        <v>527.3683654126321</v>
+        <v>527.3683654126323</v>
       </c>
       <c r="H4" t="n">
-        <v>527.368365412632</v>
+        <v>527.3683654126323</v>
       </c>
       <c r="I4" t="n">
-        <v>527.3683654126322</v>
+        <v>527.3683654126323</v>
       </c>
       <c r="J4" t="n">
-        <v>527.3683654126321</v>
+        <v>527.3683654126323</v>
       </c>
       <c r="K4" t="n">
-        <v>527.3683654126321</v>
+        <v>527.3683654126323</v>
       </c>
       <c r="L4" t="n">
-        <v>527.3683654126321</v>
+        <v>527.3683654126323</v>
       </c>
       <c r="M4" t="n">
-        <v>527.3683654126321</v>
+        <v>527.3683654126323</v>
       </c>
       <c r="N4" t="n">
-        <v>527.3683654126321</v>
+        <v>527.3683654126323</v>
       </c>
       <c r="O4" t="n">
-        <v>527.3683654126322</v>
+        <v>527.3683654126323</v>
       </c>
       <c r="P4" t="n">
-        <v>527.3683654126322</v>
+        <v>527.3683654126323</v>
       </c>
     </row>
   </sheetData>
@@ -26962,10 +26962,10 @@
         <v>42.37941378408804</v>
       </c>
       <c r="C3" t="n">
-        <v>2.89904051855644</v>
+        <v>2.899040518556447</v>
       </c>
       <c r="D3" t="n">
-        <v>2.930801160608368</v>
+        <v>2.930801160608375</v>
       </c>
       <c r="E3" t="n">
         <v>440.4899626843175</v>
@@ -27645,16 +27645,16 @@
         <v>12.61047343199521</v>
       </c>
       <c r="L5" t="n">
-        <v>9.587300011056808</v>
+        <v>9.587300011056811</v>
       </c>
       <c r="M5" t="n">
         <v>5.4694522901083</v>
       </c>
       <c r="N5" t="n">
-        <v>4.800636714419433</v>
+        <v>4.80063671441944</v>
       </c>
       <c r="O5" t="n">
-        <v>6.721973758497697</v>
+        <v>6.7219737584977</v>
       </c>
       <c r="P5" t="n">
         <v>11.40009215480153</v>
@@ -27721,7 +27721,7 @@
         <v>11.40976353962329</v>
       </c>
       <c r="K6" t="n">
-        <v>6.672659757291239</v>
+        <v>6.672659757291241</v>
       </c>
       <c r="L6" t="n">
         <v>1.368767089206766</v>
@@ -31287,19 +31287,19 @@
         <v>7.017477827146541</v>
       </c>
       <c r="J5" t="n">
-        <v>15.44905411404653</v>
+        <v>15.44905411404652</v>
       </c>
       <c r="K5" t="n">
         <v>23.15412736281413</v>
       </c>
       <c r="L5" t="n">
-        <v>28.72474242156612</v>
+        <v>28.72474242156611</v>
       </c>
       <c r="M5" t="n">
         <v>31.96181060932351</v>
       </c>
       <c r="N5" t="n">
-        <v>32.47898612002659</v>
+        <v>32.47898612002658</v>
       </c>
       <c r="O5" t="n">
         <v>30.6689855975264</v>
@@ -31317,7 +31317,7 @@
         <v>4.147870461996026</v>
       </c>
       <c r="T5" t="n">
-        <v>0.7968097837580953</v>
+        <v>0.7968097837580952</v>
       </c>
       <c r="U5" t="n">
         <v>0.01456191495160424</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09739139227361268</v>
+        <v>0.09739139227361267</v>
       </c>
       <c r="H6" t="n">
         <v>0.9405958148530489</v>
@@ -31396,7 +31396,7 @@
         <v>1.809002395959427</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3925556556993422</v>
+        <v>0.3925556556993421</v>
       </c>
       <c r="U6" t="n">
         <v>0.006407328439053468</v>
@@ -31439,7 +31439,7 @@
         <v>0.08164967169329333</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7259398083276449</v>
+        <v>0.7259398083276448</v>
       </c>
       <c r="I7" t="n">
         <v>2.455428308740131</v>
@@ -31466,10 +31466,10 @@
         <v>9.875156656432491</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.837046599699318</v>
+        <v>6.837046599699317</v>
       </c>
       <c r="R7" t="n">
-        <v>3.671266147227534</v>
+        <v>3.671266147227533</v>
       </c>
       <c r="S7" t="n">
         <v>1.422931096691302</v>
@@ -31758,7 +31758,7 @@
         <v>20.12016429287961</v>
       </c>
       <c r="I11" t="n">
-        <v>75.74101148797672</v>
+        <v>75.74101148797673</v>
       </c>
       <c r="J11" t="n">
         <v>166.7446643869442</v>
@@ -31767,31 +31767,31 @@
         <v>249.9070278208603</v>
       </c>
       <c r="L11" t="n">
-        <v>310.0317663028049</v>
+        <v>310.031766302805</v>
       </c>
       <c r="M11" t="n">
         <v>344.9700767379078</v>
       </c>
       <c r="N11" t="n">
-        <v>350.5520532346386</v>
+        <v>350.5520532346387</v>
       </c>
       <c r="O11" t="n">
-        <v>331.0163633835636</v>
+        <v>331.0163633835637</v>
       </c>
       <c r="P11" t="n">
-        <v>282.5148078136414</v>
+        <v>282.5148078136415</v>
       </c>
       <c r="Q11" t="n">
         <v>212.1568550501847</v>
       </c>
       <c r="R11" t="n">
-        <v>123.4100593445721</v>
+        <v>123.4100593445722</v>
       </c>
       <c r="S11" t="n">
-        <v>44.76877762226236</v>
+        <v>44.76877762226237</v>
       </c>
       <c r="T11" t="n">
-        <v>8.60012392941101</v>
+        <v>8.600123929411012</v>
       </c>
       <c r="U11" t="n">
         <v>0.1571695977962034</v>
@@ -31855,7 +31855,7 @@
         <v>273.3903295937055</v>
       </c>
       <c r="O12" t="n">
-        <v>250.0987404419929</v>
+        <v>250.098740441993</v>
       </c>
       <c r="P12" t="n">
         <v>200.7262882991408</v>
@@ -31913,13 +31913,13 @@
         <v>0.8812608851841433</v>
       </c>
       <c r="H13" t="n">
-        <v>7.835210415546297</v>
+        <v>7.835210415546298</v>
       </c>
       <c r="I13" t="n">
         <v>26.50191825626497</v>
       </c>
       <c r="J13" t="n">
-        <v>62.30514458251892</v>
+        <v>62.30514458251893</v>
       </c>
       <c r="K13" t="n">
         <v>102.3864919332123</v>
@@ -31931,7 +31931,7 @@
         <v>138.1416494839107</v>
       </c>
       <c r="N13" t="n">
-        <v>134.8569498209517</v>
+        <v>134.8569498209518</v>
       </c>
       <c r="O13" t="n">
         <v>124.5622203894824</v>
@@ -31940,10 +31940,10 @@
         <v>106.5844983317258</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.79358194028312</v>
+        <v>73.79358194028313</v>
       </c>
       <c r="R13" t="n">
-        <v>39.6246939829161</v>
+        <v>39.62469398291611</v>
       </c>
       <c r="S13" t="n">
         <v>15.35797378998184</v>
@@ -31952,7 +31952,7 @@
         <v>3.765387418514066</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04806877555549877</v>
+        <v>0.04806877555549878</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.964619972452542</v>
+        <v>1.964619972452543</v>
       </c>
       <c r="H14" t="n">
-        <v>20.1201642928796</v>
+        <v>20.12016429287961</v>
       </c>
       <c r="I14" t="n">
-        <v>75.74101148797671</v>
+        <v>75.74101148797672</v>
       </c>
       <c r="J14" t="n">
-        <v>166.7446643869441</v>
+        <v>166.7446643869442</v>
       </c>
       <c r="K14" t="n">
         <v>249.9070278208603</v>
       </c>
       <c r="L14" t="n">
-        <v>310.0317663028048</v>
+        <v>310.0317663028049</v>
       </c>
       <c r="M14" t="n">
-        <v>344.9700767379077</v>
+        <v>344.9700767379078</v>
       </c>
       <c r="N14" t="n">
-        <v>350.5520532346385</v>
+        <v>350.5520532346386</v>
       </c>
       <c r="O14" t="n">
-        <v>331.0163633835635</v>
+        <v>331.0163633835636</v>
       </c>
       <c r="P14" t="n">
         <v>282.5148078136414</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.1568550501846</v>
+        <v>212.1568550501847</v>
       </c>
       <c r="R14" t="n">
         <v>123.4100593445721</v>
@@ -32028,10 +32028,10 @@
         <v>44.76877762226236</v>
       </c>
       <c r="T14" t="n">
-        <v>8.600123929411009</v>
+        <v>8.60012392941101</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1571695977962033</v>
+        <v>0.1571695977962034</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,43 +32074,43 @@
         <v>10.1520347015184</v>
       </c>
       <c r="I15" t="n">
-        <v>36.19140436281535</v>
+        <v>36.19140436281536</v>
       </c>
       <c r="J15" t="n">
-        <v>99.31197979355484</v>
+        <v>99.31197979355487</v>
       </c>
       <c r="K15" t="n">
         <v>169.7399916465953</v>
       </c>
       <c r="L15" t="n">
-        <v>228.2363659848629</v>
+        <v>228.236365984863</v>
       </c>
       <c r="M15" t="n">
         <v>266.3410738904258</v>
       </c>
       <c r="N15" t="n">
-        <v>273.3903295937054</v>
+        <v>273.3903295937055</v>
       </c>
       <c r="O15" t="n">
         <v>250.0987404419929</v>
       </c>
       <c r="P15" t="n">
-        <v>200.7262882991407</v>
+        <v>200.7262882991408</v>
       </c>
       <c r="Q15" t="n">
-        <v>134.1802079713857</v>
+        <v>134.1802079713858</v>
       </c>
       <c r="R15" t="n">
-        <v>65.26439747261328</v>
+        <v>65.2643974726133</v>
       </c>
       <c r="S15" t="n">
         <v>19.52491687599018</v>
       </c>
       <c r="T15" t="n">
-        <v>4.236930013939782</v>
+        <v>4.236930013939784</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06915554973786375</v>
+        <v>0.06915554973786377</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.881260885184143</v>
+        <v>0.8812608851841433</v>
       </c>
       <c r="H16" t="n">
-        <v>7.835210415546295</v>
+        <v>7.835210415546297</v>
       </c>
       <c r="I16" t="n">
-        <v>26.50191825626496</v>
+        <v>26.50191825626497</v>
       </c>
       <c r="J16" t="n">
-        <v>62.30514458251891</v>
+        <v>62.30514458251892</v>
       </c>
       <c r="K16" t="n">
-        <v>102.3864919332122</v>
+        <v>102.3864919332123</v>
       </c>
       <c r="L16" t="n">
-        <v>131.0194592391043</v>
+        <v>131.0194592391044</v>
       </c>
       <c r="M16" t="n">
         <v>138.1416494839107</v>
@@ -32177,16 +32177,16 @@
         <v>106.5844983317258</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.7935819402831</v>
+        <v>73.79358194028312</v>
       </c>
       <c r="R16" t="n">
-        <v>39.62469398291609</v>
+        <v>39.6246939829161</v>
       </c>
       <c r="S16" t="n">
-        <v>15.35797378998183</v>
+        <v>15.35797378998184</v>
       </c>
       <c r="T16" t="n">
-        <v>3.765387418514065</v>
+        <v>3.765387418514066</v>
       </c>
       <c r="U16" t="n">
         <v>0.04806877555549877</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.964619972452542</v>
+        <v>1.964619972452543</v>
       </c>
       <c r="H17" t="n">
-        <v>20.1201642928796</v>
+        <v>20.12016429287961</v>
       </c>
       <c r="I17" t="n">
-        <v>75.74101148797671</v>
+        <v>75.74101148797672</v>
       </c>
       <c r="J17" t="n">
         <v>166.7446643869441</v>
@@ -32250,7 +32250,7 @@
         <v>350.5520532346385</v>
       </c>
       <c r="O17" t="n">
-        <v>331.0163633835635</v>
+        <v>331.0163633835636</v>
       </c>
       <c r="P17" t="n">
         <v>282.5148078136414</v>
@@ -32268,7 +32268,7 @@
         <v>8.600123929411009</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1571695977962033</v>
+        <v>0.1571695977962034</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,10 +32311,10 @@
         <v>10.1520347015184</v>
       </c>
       <c r="I18" t="n">
-        <v>36.19140436281535</v>
+        <v>36.19140436281536</v>
       </c>
       <c r="J18" t="n">
-        <v>99.31197979355484</v>
+        <v>99.31197979355485</v>
       </c>
       <c r="K18" t="n">
         <v>169.7399916465953</v>
@@ -32344,7 +32344,7 @@
         <v>19.52491687599018</v>
       </c>
       <c r="T18" t="n">
-        <v>4.236930013939782</v>
+        <v>4.236930013939783</v>
       </c>
       <c r="U18" t="n">
         <v>0.06915554973786375</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.881260885184143</v>
+        <v>0.8812608851841431</v>
       </c>
       <c r="H19" t="n">
-        <v>7.835210415546295</v>
+        <v>7.835210415546296</v>
       </c>
       <c r="I19" t="n">
         <v>26.50191825626496</v>
@@ -32414,10 +32414,10 @@
         <v>106.5844983317258</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.7935819402831</v>
+        <v>73.79358194028312</v>
       </c>
       <c r="R19" t="n">
-        <v>39.62469398291609</v>
+        <v>39.6246939829161</v>
       </c>
       <c r="S19" t="n">
         <v>15.35797378998183</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.964619972452542</v>
+        <v>1.964619972452543</v>
       </c>
       <c r="H20" t="n">
-        <v>20.1201642928796</v>
+        <v>20.12016429287961</v>
       </c>
       <c r="I20" t="n">
-        <v>75.74101148797671</v>
+        <v>75.74101148797673</v>
       </c>
       <c r="J20" t="n">
-        <v>166.7446643869441</v>
+        <v>166.7446643869442</v>
       </c>
       <c r="K20" t="n">
         <v>249.9070278208603</v>
       </c>
       <c r="L20" t="n">
-        <v>310.0317663028048</v>
+        <v>310.031766302805</v>
       </c>
       <c r="M20" t="n">
-        <v>344.9700767379077</v>
+        <v>344.9700767379078</v>
       </c>
       <c r="N20" t="n">
-        <v>350.5520532346385</v>
+        <v>350.5520532346387</v>
       </c>
       <c r="O20" t="n">
-        <v>331.0163633835635</v>
+        <v>331.0163633835637</v>
       </c>
       <c r="P20" t="n">
-        <v>282.5148078136414</v>
+        <v>282.5148078136415</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.1568550501846</v>
+        <v>212.1568550501847</v>
       </c>
       <c r="R20" t="n">
-        <v>123.4100593445721</v>
+        <v>123.4100593445722</v>
       </c>
       <c r="S20" t="n">
-        <v>44.76877762226236</v>
+        <v>44.76877762226237</v>
       </c>
       <c r="T20" t="n">
-        <v>8.600123929411009</v>
+        <v>8.600123929411012</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1571695977962033</v>
+        <v>0.1571695977962034</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,43 +32548,43 @@
         <v>10.1520347015184</v>
       </c>
       <c r="I21" t="n">
-        <v>36.19140436281535</v>
+        <v>36.19140436281536</v>
       </c>
       <c r="J21" t="n">
-        <v>99.31197979355484</v>
+        <v>99.31197979355487</v>
       </c>
       <c r="K21" t="n">
         <v>169.7399916465953</v>
       </c>
       <c r="L21" t="n">
-        <v>228.2363659848629</v>
+        <v>228.236365984863</v>
       </c>
       <c r="M21" t="n">
         <v>266.3410738904258</v>
       </c>
       <c r="N21" t="n">
-        <v>273.3903295937054</v>
+        <v>273.3903295937055</v>
       </c>
       <c r="O21" t="n">
-        <v>250.0987404419929</v>
+        <v>250.098740441993</v>
       </c>
       <c r="P21" t="n">
-        <v>200.7262882991407</v>
+        <v>200.7262882991408</v>
       </c>
       <c r="Q21" t="n">
-        <v>134.1802079713857</v>
+        <v>134.1802079713858</v>
       </c>
       <c r="R21" t="n">
-        <v>65.26439747261328</v>
+        <v>65.2643974726133</v>
       </c>
       <c r="S21" t="n">
         <v>19.52491687599018</v>
       </c>
       <c r="T21" t="n">
-        <v>4.236930013939782</v>
+        <v>4.236930013939784</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06915554973786375</v>
+        <v>0.06915554973786377</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,28 +32621,28 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.881260885184143</v>
+        <v>0.8812608851841433</v>
       </c>
       <c r="H22" t="n">
-        <v>7.835210415546295</v>
+        <v>7.835210415546298</v>
       </c>
       <c r="I22" t="n">
-        <v>26.50191825626496</v>
+        <v>26.50191825626497</v>
       </c>
       <c r="J22" t="n">
-        <v>62.30514458251891</v>
+        <v>62.30514458251893</v>
       </c>
       <c r="K22" t="n">
-        <v>102.3864919332122</v>
+        <v>102.3864919332123</v>
       </c>
       <c r="L22" t="n">
-        <v>131.0194592391043</v>
+        <v>131.0194592391044</v>
       </c>
       <c r="M22" t="n">
         <v>138.1416494839107</v>
       </c>
       <c r="N22" t="n">
-        <v>134.8569498209517</v>
+        <v>134.8569498209518</v>
       </c>
       <c r="O22" t="n">
         <v>124.5622203894824</v>
@@ -32651,19 +32651,19 @@
         <v>106.5844983317258</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.7935819402831</v>
+        <v>73.79358194028313</v>
       </c>
       <c r="R22" t="n">
-        <v>39.62469398291609</v>
+        <v>39.62469398291611</v>
       </c>
       <c r="S22" t="n">
-        <v>15.35797378998183</v>
+        <v>15.35797378998184</v>
       </c>
       <c r="T22" t="n">
-        <v>3.765387418514065</v>
+        <v>3.765387418514066</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04806877555549877</v>
+        <v>0.04806877555549878</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.964619972452542</v>
+        <v>1.964619972452543</v>
       </c>
       <c r="H23" t="n">
-        <v>20.1201642928796</v>
+        <v>20.12016429287961</v>
       </c>
       <c r="I23" t="n">
-        <v>75.74101148797671</v>
+        <v>75.74101148797672</v>
       </c>
       <c r="J23" t="n">
-        <v>166.7446643869441</v>
+        <v>166.7446643869442</v>
       </c>
       <c r="K23" t="n">
-        <v>249.9070278208602</v>
+        <v>249.9070278208603</v>
       </c>
       <c r="L23" t="n">
-        <v>310.0317663028048</v>
+        <v>310.0317663028049</v>
       </c>
       <c r="M23" t="n">
-        <v>344.9700767379077</v>
+        <v>344.9700767379078</v>
       </c>
       <c r="N23" t="n">
-        <v>350.5520532346385</v>
+        <v>350.5520532346386</v>
       </c>
       <c r="O23" t="n">
-        <v>331.0163633835635</v>
+        <v>331.0163633835636</v>
       </c>
       <c r="P23" t="n">
-        <v>282.5148078136413</v>
+        <v>282.5148078136414</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.1568550501846</v>
+        <v>212.1568550501847</v>
       </c>
       <c r="R23" t="n">
         <v>123.4100593445721</v>
       </c>
       <c r="S23" t="n">
-        <v>44.76877762226235</v>
+        <v>44.76877762226236</v>
       </c>
       <c r="T23" t="n">
-        <v>8.600123929411007</v>
+        <v>8.60012392941101</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1571695977962033</v>
+        <v>0.1571695977962034</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.051164356015528</v>
+        <v>1.051164356015529</v>
       </c>
       <c r="H24" t="n">
-        <v>10.15203470151839</v>
+        <v>10.1520347015184</v>
       </c>
       <c r="I24" t="n">
-        <v>36.19140436281535</v>
+        <v>36.19140436281536</v>
       </c>
       <c r="J24" t="n">
-        <v>99.31197979355483</v>
+        <v>99.31197979355487</v>
       </c>
       <c r="K24" t="n">
-        <v>169.7399916465952</v>
+        <v>169.7399916465953</v>
       </c>
       <c r="L24" t="n">
-        <v>228.2363659848629</v>
+        <v>228.236365984863</v>
       </c>
       <c r="M24" t="n">
-        <v>266.3410738904257</v>
+        <v>266.3410738904258</v>
       </c>
       <c r="N24" t="n">
-        <v>273.3903295937054</v>
+        <v>273.3903295937055</v>
       </c>
       <c r="O24" t="n">
-        <v>250.0987404419928</v>
+        <v>250.0987404419929</v>
       </c>
       <c r="P24" t="n">
-        <v>200.7262882991407</v>
+        <v>200.7262882991408</v>
       </c>
       <c r="Q24" t="n">
-        <v>134.1802079713857</v>
+        <v>134.1802079713858</v>
       </c>
       <c r="R24" t="n">
-        <v>65.26439747261327</v>
+        <v>65.2643974726133</v>
       </c>
       <c r="S24" t="n">
         <v>19.52491687599018</v>
       </c>
       <c r="T24" t="n">
-        <v>4.236930013939782</v>
+        <v>4.236930013939784</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06915554973786374</v>
+        <v>0.06915554973786377</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,22 +32858,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8812608851841429</v>
+        <v>0.8812608851841433</v>
       </c>
       <c r="H25" t="n">
-        <v>7.835210415546294</v>
+        <v>7.835210415546297</v>
       </c>
       <c r="I25" t="n">
-        <v>26.50191825626496</v>
+        <v>26.50191825626497</v>
       </c>
       <c r="J25" t="n">
-        <v>62.3051445825189</v>
+        <v>62.30514458251892</v>
       </c>
       <c r="K25" t="n">
-        <v>102.3864919332122</v>
+        <v>102.3864919332123</v>
       </c>
       <c r="L25" t="n">
-        <v>131.0194592391043</v>
+        <v>131.0194592391044</v>
       </c>
       <c r="M25" t="n">
         <v>138.1416494839107</v>
@@ -32882,25 +32882,25 @@
         <v>134.8569498209517</v>
       </c>
       <c r="O25" t="n">
-        <v>124.5622203894823</v>
+        <v>124.5622203894824</v>
       </c>
       <c r="P25" t="n">
         <v>106.5844983317258</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.7935819402831</v>
+        <v>73.79358194028312</v>
       </c>
       <c r="R25" t="n">
-        <v>39.62469398291609</v>
+        <v>39.6246939829161</v>
       </c>
       <c r="S25" t="n">
-        <v>15.35797378998183</v>
+        <v>15.35797378998184</v>
       </c>
       <c r="T25" t="n">
-        <v>3.765387418514064</v>
+        <v>3.765387418514066</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04806877555549876</v>
+        <v>0.04806877555549877</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.964619972452542</v>
+        <v>1.964619972452543</v>
       </c>
       <c r="H26" t="n">
-        <v>20.1201642928796</v>
+        <v>20.12016429287961</v>
       </c>
       <c r="I26" t="n">
-        <v>75.74101148797671</v>
+        <v>75.74101148797672</v>
       </c>
       <c r="J26" t="n">
-        <v>166.7446643869441</v>
+        <v>166.7446643869442</v>
       </c>
       <c r="K26" t="n">
         <v>249.9070278208603</v>
       </c>
       <c r="L26" t="n">
-        <v>310.0317663028048</v>
+        <v>310.0317663028049</v>
       </c>
       <c r="M26" t="n">
-        <v>344.9700767379077</v>
+        <v>344.9700767379078</v>
       </c>
       <c r="N26" t="n">
-        <v>350.5520532346385</v>
+        <v>350.5520532346386</v>
       </c>
       <c r="O26" t="n">
-        <v>331.0163633835635</v>
+        <v>331.0163633835636</v>
       </c>
       <c r="P26" t="n">
         <v>282.5148078136414</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.1568550501846</v>
+        <v>212.1568550501847</v>
       </c>
       <c r="R26" t="n">
         <v>123.4100593445721</v>
@@ -32976,10 +32976,10 @@
         <v>44.76877762226236</v>
       </c>
       <c r="T26" t="n">
-        <v>8.600123929411009</v>
+        <v>8.60012392941101</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1571695977962033</v>
+        <v>0.1571695977962034</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,43 +33022,43 @@
         <v>10.1520347015184</v>
       </c>
       <c r="I27" t="n">
-        <v>36.19140436281535</v>
+        <v>36.19140436281536</v>
       </c>
       <c r="J27" t="n">
-        <v>99.31197979355484</v>
+        <v>99.31197979355487</v>
       </c>
       <c r="K27" t="n">
         <v>169.7399916465953</v>
       </c>
       <c r="L27" t="n">
-        <v>228.2363659848629</v>
+        <v>228.236365984863</v>
       </c>
       <c r="M27" t="n">
         <v>266.3410738904258</v>
       </c>
       <c r="N27" t="n">
-        <v>273.3903295937054</v>
+        <v>273.3903295937055</v>
       </c>
       <c r="O27" t="n">
         <v>250.0987404419929</v>
       </c>
       <c r="P27" t="n">
-        <v>200.7262882991407</v>
+        <v>200.7262882991408</v>
       </c>
       <c r="Q27" t="n">
-        <v>134.1802079713857</v>
+        <v>134.1802079713858</v>
       </c>
       <c r="R27" t="n">
-        <v>65.26439747261328</v>
+        <v>65.2643974726133</v>
       </c>
       <c r="S27" t="n">
         <v>19.52491687599018</v>
       </c>
       <c r="T27" t="n">
-        <v>4.236930013939782</v>
+        <v>4.236930013939784</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06915554973786375</v>
+        <v>0.06915554973786377</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,22 +33095,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.881260885184143</v>
+        <v>0.8812608851841433</v>
       </c>
       <c r="H28" t="n">
-        <v>7.835210415546295</v>
+        <v>7.835210415546297</v>
       </c>
       <c r="I28" t="n">
-        <v>26.50191825626496</v>
+        <v>26.50191825626497</v>
       </c>
       <c r="J28" t="n">
-        <v>62.30514458251891</v>
+        <v>62.30514458251892</v>
       </c>
       <c r="K28" t="n">
-        <v>102.3864919332122</v>
+        <v>102.3864919332123</v>
       </c>
       <c r="L28" t="n">
-        <v>131.0194592391043</v>
+        <v>131.0194592391044</v>
       </c>
       <c r="M28" t="n">
         <v>138.1416494839107</v>
@@ -33125,16 +33125,16 @@
         <v>106.5844983317258</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.7935819402831</v>
+        <v>73.79358194028312</v>
       </c>
       <c r="R28" t="n">
-        <v>39.62469398291609</v>
+        <v>39.6246939829161</v>
       </c>
       <c r="S28" t="n">
-        <v>15.35797378998183</v>
+        <v>15.35797378998184</v>
       </c>
       <c r="T28" t="n">
-        <v>3.765387418514065</v>
+        <v>3.765387418514066</v>
       </c>
       <c r="U28" t="n">
         <v>0.04806877555549877</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.964619972452542</v>
+        <v>1.964619972452543</v>
       </c>
       <c r="H29" t="n">
-        <v>20.1201642928796</v>
+        <v>20.12016429287961</v>
       </c>
       <c r="I29" t="n">
-        <v>75.74101148797671</v>
+        <v>75.74101148797672</v>
       </c>
       <c r="J29" t="n">
-        <v>166.7446643869441</v>
+        <v>166.7446643869442</v>
       </c>
       <c r="K29" t="n">
         <v>249.9070278208603</v>
       </c>
       <c r="L29" t="n">
-        <v>310.0317663028048</v>
+        <v>310.0317663028049</v>
       </c>
       <c r="M29" t="n">
-        <v>344.9700767379077</v>
+        <v>344.9700767379078</v>
       </c>
       <c r="N29" t="n">
-        <v>350.5520532346385</v>
+        <v>350.5520532346386</v>
       </c>
       <c r="O29" t="n">
-        <v>331.0163633835635</v>
+        <v>331.0163633835636</v>
       </c>
       <c r="P29" t="n">
         <v>282.5148078136414</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.1568550501846</v>
+        <v>212.1568550501847</v>
       </c>
       <c r="R29" t="n">
         <v>123.4100593445721</v>
@@ -33213,10 +33213,10 @@
         <v>44.76877762226236</v>
       </c>
       <c r="T29" t="n">
-        <v>8.600123929411009</v>
+        <v>8.60012392941101</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1571695977962033</v>
+        <v>0.1571695977962034</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,43 +33259,43 @@
         <v>10.1520347015184</v>
       </c>
       <c r="I30" t="n">
-        <v>36.19140436281535</v>
+        <v>36.19140436281536</v>
       </c>
       <c r="J30" t="n">
-        <v>99.31197979355484</v>
+        <v>99.31197979355487</v>
       </c>
       <c r="K30" t="n">
         <v>169.7399916465953</v>
       </c>
       <c r="L30" t="n">
-        <v>228.2363659848629</v>
+        <v>228.236365984863</v>
       </c>
       <c r="M30" t="n">
         <v>266.3410738904258</v>
       </c>
       <c r="N30" t="n">
-        <v>273.3903295937054</v>
+        <v>273.3903295937055</v>
       </c>
       <c r="O30" t="n">
         <v>250.0987404419929</v>
       </c>
       <c r="P30" t="n">
-        <v>200.7262882991407</v>
+        <v>200.7262882991408</v>
       </c>
       <c r="Q30" t="n">
-        <v>134.1802079713857</v>
+        <v>134.1802079713858</v>
       </c>
       <c r="R30" t="n">
-        <v>65.26439747261328</v>
+        <v>65.2643974726133</v>
       </c>
       <c r="S30" t="n">
         <v>19.52491687599018</v>
       </c>
       <c r="T30" t="n">
-        <v>4.236930013939782</v>
+        <v>4.236930013939784</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06915554973786375</v>
+        <v>0.06915554973786377</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,22 +33332,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.881260885184143</v>
+        <v>0.8812608851841433</v>
       </c>
       <c r="H31" t="n">
-        <v>7.835210415546295</v>
+        <v>7.835210415546297</v>
       </c>
       <c r="I31" t="n">
-        <v>26.50191825626496</v>
+        <v>26.50191825626497</v>
       </c>
       <c r="J31" t="n">
-        <v>62.30514458251891</v>
+        <v>62.30514458251892</v>
       </c>
       <c r="K31" t="n">
-        <v>102.3864919332122</v>
+        <v>102.3864919332123</v>
       </c>
       <c r="L31" t="n">
-        <v>131.0194592391043</v>
+        <v>131.0194592391044</v>
       </c>
       <c r="M31" t="n">
         <v>138.1416494839107</v>
@@ -33362,16 +33362,16 @@
         <v>106.5844983317258</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.7935819402831</v>
+        <v>73.79358194028312</v>
       </c>
       <c r="R31" t="n">
-        <v>39.62469398291609</v>
+        <v>39.6246939829161</v>
       </c>
       <c r="S31" t="n">
-        <v>15.35797378998183</v>
+        <v>15.35797378998184</v>
       </c>
       <c r="T31" t="n">
-        <v>3.765387418514065</v>
+        <v>3.765387418514066</v>
       </c>
       <c r="U31" t="n">
         <v>0.04806877555549877</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.964619972452542</v>
+        <v>1.964619972452543</v>
       </c>
       <c r="H32" t="n">
-        <v>20.1201642928796</v>
+        <v>20.12016429287961</v>
       </c>
       <c r="I32" t="n">
-        <v>75.74101148797671</v>
+        <v>75.74101148797672</v>
       </c>
       <c r="J32" t="n">
-        <v>166.7446643869441</v>
+        <v>166.7446643869442</v>
       </c>
       <c r="K32" t="n">
         <v>249.9070278208603</v>
       </c>
       <c r="L32" t="n">
-        <v>310.0317663028048</v>
+        <v>310.0317663028049</v>
       </c>
       <c r="M32" t="n">
-        <v>344.9700767379077</v>
+        <v>344.9700767379078</v>
       </c>
       <c r="N32" t="n">
-        <v>350.5520532346385</v>
+        <v>350.5520532346386</v>
       </c>
       <c r="O32" t="n">
-        <v>331.0163633835635</v>
+        <v>331.0163633835636</v>
       </c>
       <c r="P32" t="n">
         <v>282.5148078136414</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.1568550501846</v>
+        <v>212.1568550501847</v>
       </c>
       <c r="R32" t="n">
         <v>123.4100593445721</v>
@@ -33450,10 +33450,10 @@
         <v>44.76877762226236</v>
       </c>
       <c r="T32" t="n">
-        <v>8.600123929411009</v>
+        <v>8.60012392941101</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1571695977962033</v>
+        <v>0.1571695977962034</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,43 +33496,43 @@
         <v>10.1520347015184</v>
       </c>
       <c r="I33" t="n">
-        <v>36.19140436281535</v>
+        <v>36.19140436281536</v>
       </c>
       <c r="J33" t="n">
-        <v>99.31197979355484</v>
+        <v>99.31197979355487</v>
       </c>
       <c r="K33" t="n">
         <v>169.7399916465953</v>
       </c>
       <c r="L33" t="n">
-        <v>228.2363659848629</v>
+        <v>228.236365984863</v>
       </c>
       <c r="M33" t="n">
         <v>266.3410738904258</v>
       </c>
       <c r="N33" t="n">
-        <v>273.3903295937054</v>
+        <v>273.3903295937055</v>
       </c>
       <c r="O33" t="n">
         <v>250.0987404419929</v>
       </c>
       <c r="P33" t="n">
-        <v>200.7262882991407</v>
+        <v>200.7262882991408</v>
       </c>
       <c r="Q33" t="n">
-        <v>134.1802079713857</v>
+        <v>134.1802079713858</v>
       </c>
       <c r="R33" t="n">
-        <v>65.26439747261328</v>
+        <v>65.2643974726133</v>
       </c>
       <c r="S33" t="n">
         <v>19.52491687599018</v>
       </c>
       <c r="T33" t="n">
-        <v>4.236930013939782</v>
+        <v>4.236930013939784</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06915554973786375</v>
+        <v>0.06915554973786377</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,22 +33569,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.881260885184143</v>
+        <v>0.8812608851841433</v>
       </c>
       <c r="H34" t="n">
-        <v>7.835210415546295</v>
+        <v>7.835210415546297</v>
       </c>
       <c r="I34" t="n">
-        <v>26.50191825626496</v>
+        <v>26.50191825626497</v>
       </c>
       <c r="J34" t="n">
-        <v>62.30514458251891</v>
+        <v>62.30514458251892</v>
       </c>
       <c r="K34" t="n">
-        <v>102.3864919332122</v>
+        <v>102.3864919332123</v>
       </c>
       <c r="L34" t="n">
-        <v>131.0194592391043</v>
+        <v>131.0194592391044</v>
       </c>
       <c r="M34" t="n">
         <v>138.1416494839107</v>
@@ -33599,16 +33599,16 @@
         <v>106.5844983317258</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.7935819402831</v>
+        <v>73.79358194028312</v>
       </c>
       <c r="R34" t="n">
-        <v>39.62469398291609</v>
+        <v>39.6246939829161</v>
       </c>
       <c r="S34" t="n">
-        <v>15.35797378998183</v>
+        <v>15.35797378998184</v>
       </c>
       <c r="T34" t="n">
-        <v>3.765387418514065</v>
+        <v>3.765387418514066</v>
       </c>
       <c r="U34" t="n">
         <v>0.04806877555549877</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.964619972452542</v>
+        <v>1.964619972452543</v>
       </c>
       <c r="H35" t="n">
-        <v>20.1201642928796</v>
+        <v>20.12016429287961</v>
       </c>
       <c r="I35" t="n">
-        <v>75.74101148797671</v>
+        <v>75.74101148797672</v>
       </c>
       <c r="J35" t="n">
-        <v>166.7446643869441</v>
+        <v>166.7446643869442</v>
       </c>
       <c r="K35" t="n">
         <v>249.9070278208603</v>
       </c>
       <c r="L35" t="n">
-        <v>310.0317663028048</v>
+        <v>310.0317663028049</v>
       </c>
       <c r="M35" t="n">
-        <v>344.9700767379077</v>
+        <v>344.9700767379078</v>
       </c>
       <c r="N35" t="n">
-        <v>350.5520532346385</v>
+        <v>350.5520532346386</v>
       </c>
       <c r="O35" t="n">
-        <v>331.0163633835635</v>
+        <v>331.0163633835636</v>
       </c>
       <c r="P35" t="n">
         <v>282.5148078136414</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.1568550501846</v>
+        <v>212.1568550501847</v>
       </c>
       <c r="R35" t="n">
         <v>123.4100593445721</v>
@@ -33687,10 +33687,10 @@
         <v>44.76877762226236</v>
       </c>
       <c r="T35" t="n">
-        <v>8.600123929411009</v>
+        <v>8.60012392941101</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1571695977962033</v>
+        <v>0.1571695977962034</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,43 +33733,43 @@
         <v>10.1520347015184</v>
       </c>
       <c r="I36" t="n">
-        <v>36.19140436281535</v>
+        <v>36.19140436281536</v>
       </c>
       <c r="J36" t="n">
-        <v>99.31197979355484</v>
+        <v>99.31197979355487</v>
       </c>
       <c r="K36" t="n">
         <v>169.7399916465953</v>
       </c>
       <c r="L36" t="n">
-        <v>228.2363659848629</v>
+        <v>228.236365984863</v>
       </c>
       <c r="M36" t="n">
         <v>266.3410738904258</v>
       </c>
       <c r="N36" t="n">
-        <v>273.3903295937054</v>
+        <v>273.3903295937055</v>
       </c>
       <c r="O36" t="n">
         <v>250.0987404419929</v>
       </c>
       <c r="P36" t="n">
-        <v>200.7262882991407</v>
+        <v>200.7262882991408</v>
       </c>
       <c r="Q36" t="n">
-        <v>134.1802079713857</v>
+        <v>134.1802079713858</v>
       </c>
       <c r="R36" t="n">
-        <v>65.26439747261328</v>
+        <v>65.2643974726133</v>
       </c>
       <c r="S36" t="n">
         <v>19.52491687599018</v>
       </c>
       <c r="T36" t="n">
-        <v>4.236930013939782</v>
+        <v>4.236930013939784</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06915554973786375</v>
+        <v>0.06915554973786377</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,22 +33806,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.881260885184143</v>
+        <v>0.8812608851841433</v>
       </c>
       <c r="H37" t="n">
-        <v>7.835210415546295</v>
+        <v>7.835210415546297</v>
       </c>
       <c r="I37" t="n">
-        <v>26.50191825626496</v>
+        <v>26.50191825626497</v>
       </c>
       <c r="J37" t="n">
-        <v>62.30514458251891</v>
+        <v>62.30514458251892</v>
       </c>
       <c r="K37" t="n">
-        <v>102.3864919332122</v>
+        <v>102.3864919332123</v>
       </c>
       <c r="L37" t="n">
-        <v>131.0194592391043</v>
+        <v>131.0194592391044</v>
       </c>
       <c r="M37" t="n">
         <v>138.1416494839107</v>
@@ -33836,16 +33836,16 @@
         <v>106.5844983317258</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.7935819402831</v>
+        <v>73.79358194028312</v>
       </c>
       <c r="R37" t="n">
-        <v>39.62469398291609</v>
+        <v>39.6246939829161</v>
       </c>
       <c r="S37" t="n">
-        <v>15.35797378998183</v>
+        <v>15.35797378998184</v>
       </c>
       <c r="T37" t="n">
-        <v>3.765387418514065</v>
+        <v>3.765387418514066</v>
       </c>
       <c r="U37" t="n">
         <v>0.04806877555549877</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.964619972452542</v>
+        <v>1.964619972452543</v>
       </c>
       <c r="H38" t="n">
-        <v>20.1201642928796</v>
+        <v>20.12016429287961</v>
       </c>
       <c r="I38" t="n">
-        <v>75.74101148797671</v>
+        <v>75.74101148797672</v>
       </c>
       <c r="J38" t="n">
-        <v>166.7446643869441</v>
+        <v>166.7446643869442</v>
       </c>
       <c r="K38" t="n">
         <v>249.9070278208603</v>
       </c>
       <c r="L38" t="n">
-        <v>310.0317663028048</v>
+        <v>310.0317663028049</v>
       </c>
       <c r="M38" t="n">
-        <v>344.9700767379077</v>
+        <v>344.9700767379078</v>
       </c>
       <c r="N38" t="n">
-        <v>350.5520532346385</v>
+        <v>350.5520532346386</v>
       </c>
       <c r="O38" t="n">
-        <v>331.0163633835635</v>
+        <v>331.0163633835636</v>
       </c>
       <c r="P38" t="n">
         <v>282.5148078136414</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.1568550501846</v>
+        <v>212.1568550501847</v>
       </c>
       <c r="R38" t="n">
         <v>123.4100593445721</v>
@@ -33924,10 +33924,10 @@
         <v>44.76877762226236</v>
       </c>
       <c r="T38" t="n">
-        <v>8.600123929411009</v>
+        <v>8.60012392941101</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1571695977962033</v>
+        <v>0.1571695977962034</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,43 +33970,43 @@
         <v>10.1520347015184</v>
       </c>
       <c r="I39" t="n">
-        <v>36.19140436281535</v>
+        <v>36.19140436281536</v>
       </c>
       <c r="J39" t="n">
-        <v>99.31197979355484</v>
+        <v>99.31197979355487</v>
       </c>
       <c r="K39" t="n">
         <v>169.7399916465953</v>
       </c>
       <c r="L39" t="n">
-        <v>228.2363659848629</v>
+        <v>228.236365984863</v>
       </c>
       <c r="M39" t="n">
         <v>266.3410738904258</v>
       </c>
       <c r="N39" t="n">
-        <v>273.3903295937054</v>
+        <v>273.3903295937055</v>
       </c>
       <c r="O39" t="n">
         <v>250.0987404419929</v>
       </c>
       <c r="P39" t="n">
-        <v>200.7262882991407</v>
+        <v>200.7262882991408</v>
       </c>
       <c r="Q39" t="n">
-        <v>134.1802079713857</v>
+        <v>134.1802079713858</v>
       </c>
       <c r="R39" t="n">
-        <v>65.26439747261328</v>
+        <v>65.2643974726133</v>
       </c>
       <c r="S39" t="n">
         <v>19.52491687599018</v>
       </c>
       <c r="T39" t="n">
-        <v>4.236930013939782</v>
+        <v>4.236930013939784</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06915554973786375</v>
+        <v>0.06915554973786377</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,22 +34043,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.881260885184143</v>
+        <v>0.8812608851841433</v>
       </c>
       <c r="H40" t="n">
-        <v>7.835210415546295</v>
+        <v>7.835210415546297</v>
       </c>
       <c r="I40" t="n">
-        <v>26.50191825626496</v>
+        <v>26.50191825626497</v>
       </c>
       <c r="J40" t="n">
-        <v>62.30514458251891</v>
+        <v>62.30514458251892</v>
       </c>
       <c r="K40" t="n">
-        <v>102.3864919332122</v>
+        <v>102.3864919332123</v>
       </c>
       <c r="L40" t="n">
-        <v>131.0194592391043</v>
+        <v>131.0194592391044</v>
       </c>
       <c r="M40" t="n">
         <v>138.1416494839107</v>
@@ -34073,16 +34073,16 @@
         <v>106.5844983317258</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.7935819402831</v>
+        <v>73.79358194028312</v>
       </c>
       <c r="R40" t="n">
-        <v>39.62469398291609</v>
+        <v>39.6246939829161</v>
       </c>
       <c r="S40" t="n">
-        <v>15.35797378998183</v>
+        <v>15.35797378998184</v>
       </c>
       <c r="T40" t="n">
-        <v>3.765387418514065</v>
+        <v>3.765387418514066</v>
       </c>
       <c r="U40" t="n">
         <v>0.04806877555549877</v>
@@ -34155,7 +34155,7 @@
         <v>212.1568550501846</v>
       </c>
       <c r="R41" t="n">
-        <v>123.4100593445722</v>
+        <v>123.4100593445721</v>
       </c>
       <c r="S41" t="n">
         <v>44.76877762226236</v>
@@ -34365,7 +34365,7 @@
         <v>20.12016429287961</v>
       </c>
       <c r="I44" t="n">
-        <v>75.74101148797672</v>
+        <v>75.74101148797715</v>
       </c>
       <c r="J44" t="n">
         <v>166.7446643869441</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.19310894401322</v>
+        <v>41.19310894401323</v>
       </c>
       <c r="J11" t="n">
         <v>137.3247049013576</v>
@@ -35421,16 +35421,16 @@
         <v>307.538813838476</v>
       </c>
       <c r="N11" t="n">
-        <v>313.2724304001926</v>
+        <v>313.2724304001927</v>
       </c>
       <c r="O11" t="n">
-        <v>293.6254040275395</v>
+        <v>293.6254040275396</v>
       </c>
       <c r="P11" t="n">
-        <v>244.9394460034101</v>
+        <v>244.9394460034102</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.0321804455866</v>
+        <v>176.0321804455867</v>
       </c>
       <c r="R11" t="n">
         <v>88.37740944977568</v>
@@ -35488,10 +35488,10 @@
         <v>20.01901761281536</v>
       </c>
       <c r="J12" t="n">
-        <v>257.4113625207731</v>
+        <v>78.70086546022154</v>
       </c>
       <c r="K12" t="n">
-        <v>147.3407578132619</v>
+        <v>147.340757813262</v>
       </c>
       <c r="L12" t="n">
         <v>205.7212792706334</v>
@@ -35509,10 +35509,10 @@
         <v>178.9554470943121</v>
       </c>
       <c r="Q12" t="n">
-        <v>111.4331696824073</v>
+        <v>396.6643741014496</v>
       </c>
       <c r="R12" t="n">
-        <v>148.1121854369599</v>
+        <v>41.59147807846915</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.66838859861706</v>
+        <v>120.3771932937896</v>
       </c>
       <c r="K13" t="n">
-        <v>81.42183748050026</v>
+        <v>141.1839106203198</v>
       </c>
       <c r="L13" t="n">
-        <v>489.2915009506405</v>
+        <v>109.1006993434032</v>
       </c>
       <c r="M13" t="n">
-        <v>527.3683654126322</v>
+        <v>115.5662095924249</v>
       </c>
       <c r="N13" t="n">
-        <v>516.1615062613919</v>
+        <v>516.161506261392</v>
       </c>
       <c r="O13" t="n">
-        <v>298.8763333535644</v>
+        <v>483.5805321872228</v>
       </c>
       <c r="P13" t="n">
-        <v>84.2036976737393</v>
+        <v>400.1190558285955</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.17401917549817</v>
+        <v>202.0765417794366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,25 +35643,25 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.1931089440132</v>
+        <v>41.19310894401322</v>
       </c>
       <c r="J14" t="n">
         <v>137.3247049013576</v>
       </c>
       <c r="K14" t="n">
-        <v>214.1424270260509</v>
+        <v>214.142427026051</v>
       </c>
       <c r="L14" t="n">
-        <v>271.7197238701819</v>
+        <v>271.719723870182</v>
       </c>
       <c r="M14" t="n">
-        <v>307.5388138384759</v>
+        <v>307.538813838476</v>
       </c>
       <c r="N14" t="n">
-        <v>313.2724304001925</v>
+        <v>313.2724304001926</v>
       </c>
       <c r="O14" t="n">
-        <v>293.6254040275394</v>
+        <v>293.6254040275395</v>
       </c>
       <c r="P14" t="n">
         <v>244.9394460034101</v>
@@ -35670,7 +35670,7 @@
         <v>176.0321804455866</v>
       </c>
       <c r="R14" t="n">
-        <v>88.37740944977566</v>
+        <v>88.37740944977568</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.01901761281535</v>
+        <v>43.71326594050409</v>
       </c>
       <c r="J15" t="n">
-        <v>78.70086546022151</v>
+        <v>78.70086546022154</v>
       </c>
       <c r="K15" t="n">
         <v>147.3407578132619</v>
       </c>
       <c r="L15" t="n">
-        <v>205.7212792706333</v>
+        <v>205.7212792706334</v>
       </c>
       <c r="M15" t="n">
-        <v>243.2442933780978</v>
+        <v>243.2442933780979</v>
       </c>
       <c r="N15" t="n">
-        <v>252.0473013801637</v>
+        <v>513.5842574715174</v>
       </c>
       <c r="O15" t="n">
-        <v>226.9268507197706</v>
+        <v>226.9268507197707</v>
       </c>
       <c r="P15" t="n">
-        <v>464.1866515133553</v>
+        <v>178.9554470943121</v>
       </c>
       <c r="Q15" t="n">
-        <v>111.4331696824072</v>
+        <v>111.4331696824073</v>
       </c>
       <c r="R15" t="n">
-        <v>41.59147807846914</v>
+        <v>41.59147807846915</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>120.3771932937896</v>
+        <v>41.66838859861706</v>
       </c>
       <c r="K16" t="n">
-        <v>81.42183748050023</v>
+        <v>81.42183748050026</v>
       </c>
       <c r="L16" t="n">
-        <v>225.8784974218092</v>
+        <v>489.2915009506405</v>
       </c>
       <c r="M16" t="n">
-        <v>527.3683654126321</v>
+        <v>527.3683654126323</v>
       </c>
       <c r="N16" t="n">
         <v>516.1615062613919</v>
       </c>
       <c r="O16" t="n">
-        <v>483.5805321872228</v>
+        <v>145.9738107496265</v>
       </c>
       <c r="P16" t="n">
-        <v>84.20369767373928</v>
+        <v>84.2036976737393</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.17401917549816</v>
+        <v>202.0765417794366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.1931089440132</v>
+        <v>41.19310894401322</v>
       </c>
       <c r="J17" t="n">
         <v>137.3247049013576</v>
@@ -35898,7 +35898,7 @@
         <v>313.2724304001925</v>
       </c>
       <c r="O17" t="n">
-        <v>293.6254040275394</v>
+        <v>293.6254040275395</v>
       </c>
       <c r="P17" t="n">
         <v>244.9394460034101</v>
@@ -35962,22 +35962,22 @@
         <v>20.01901761281535</v>
       </c>
       <c r="J18" t="n">
-        <v>78.70086546022151</v>
+        <v>363.9320698792645</v>
       </c>
       <c r="K18" t="n">
         <v>147.3407578132619</v>
       </c>
       <c r="L18" t="n">
-        <v>205.7212792706333</v>
+        <v>205.7212792706334</v>
       </c>
       <c r="M18" t="n">
         <v>243.2442933780978</v>
       </c>
       <c r="N18" t="n">
-        <v>252.0473013801637</v>
+        <v>252.0473013801638</v>
       </c>
       <c r="O18" t="n">
-        <v>512.1580551388137</v>
+        <v>226.9268507197707</v>
       </c>
       <c r="P18" t="n">
         <v>178.9554470943121</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>120.3771932937896</v>
+        <v>41.66838859861704</v>
       </c>
       <c r="K19" t="n">
-        <v>331.2022507269871</v>
+        <v>331.2022507269872</v>
       </c>
       <c r="L19" t="n">
         <v>489.2915009506405</v>
@@ -36053,16 +36053,16 @@
         <v>115.5662095924249</v>
       </c>
       <c r="N19" t="n">
-        <v>327.4698638436516</v>
+        <v>114.1080488453513</v>
       </c>
       <c r="O19" t="n">
-        <v>102.0630328910579</v>
+        <v>483.5805321872228</v>
       </c>
       <c r="P19" t="n">
         <v>400.1190558285955</v>
       </c>
       <c r="Q19" t="n">
-        <v>202.0765417794366</v>
+        <v>112.6296621767452</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.1931089440132</v>
+        <v>41.19310894401323</v>
       </c>
       <c r="J20" t="n">
         <v>137.3247049013576</v>
       </c>
       <c r="K20" t="n">
-        <v>214.1424270260509</v>
+        <v>214.142427026051</v>
       </c>
       <c r="L20" t="n">
-        <v>271.7197238701819</v>
+        <v>271.719723870182</v>
       </c>
       <c r="M20" t="n">
-        <v>307.5388138384759</v>
+        <v>307.538813838476</v>
       </c>
       <c r="N20" t="n">
-        <v>313.2724304001925</v>
+        <v>313.2724304001927</v>
       </c>
       <c r="O20" t="n">
-        <v>293.6254040275394</v>
+        <v>293.6254040275396</v>
       </c>
       <c r="P20" t="n">
-        <v>244.9394460034101</v>
+        <v>244.9394460034102</v>
       </c>
       <c r="Q20" t="n">
-        <v>176.0321804455866</v>
+        <v>176.0321804455867</v>
       </c>
       <c r="R20" t="n">
-        <v>88.37740944977566</v>
+        <v>88.37740944977568</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.01901761281535</v>
+        <v>43.71326594050409</v>
       </c>
       <c r="J21" t="n">
-        <v>78.70086546022151</v>
+        <v>233.7171141930842</v>
       </c>
       <c r="K21" t="n">
-        <v>147.3407578132619</v>
+        <v>147.340757813262</v>
       </c>
       <c r="L21" t="n">
-        <v>205.7212792706333</v>
+        <v>205.7212792706334</v>
       </c>
       <c r="M21" t="n">
-        <v>243.2442933780978</v>
+        <v>243.2442933780979</v>
       </c>
       <c r="N21" t="n">
-        <v>252.0473013801637</v>
+        <v>252.0473013801638</v>
       </c>
       <c r="O21" t="n">
-        <v>226.9268507197706</v>
+        <v>226.9268507197707</v>
       </c>
       <c r="P21" t="n">
         <v>178.9554470943121</v>
       </c>
       <c r="Q21" t="n">
-        <v>396.6643741014503</v>
+        <v>111.4331696824073</v>
       </c>
       <c r="R21" t="n">
-        <v>41.59147807846914</v>
+        <v>148.1121854369599</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>120.3771932937896</v>
+        <v>41.66838859861706</v>
       </c>
       <c r="K22" t="n">
-        <v>81.42183748050023</v>
+        <v>331.2022507269872</v>
       </c>
       <c r="L22" t="n">
-        <v>489.2915009506405</v>
+        <v>109.1006993434032</v>
       </c>
       <c r="M22" t="n">
-        <v>527.368365412632</v>
+        <v>527.3683654126323</v>
       </c>
       <c r="N22" t="n">
-        <v>114.1080488453513</v>
+        <v>114.1080488453514</v>
       </c>
       <c r="O22" t="n">
         <v>483.5805321872228</v>
       </c>
       <c r="P22" t="n">
-        <v>222.8441515609485</v>
+        <v>279.0608220129338</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.17401917549816</v>
+        <v>202.0765417794366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.1931089440132</v>
+        <v>41.19310894401322</v>
       </c>
       <c r="J23" t="n">
         <v>137.3247049013576</v>
       </c>
       <c r="K23" t="n">
-        <v>214.1424270260509</v>
+        <v>214.142427026051</v>
       </c>
       <c r="L23" t="n">
-        <v>271.7197238701818</v>
+        <v>271.719723870182</v>
       </c>
       <c r="M23" t="n">
-        <v>307.5388138384758</v>
+        <v>307.538813838476</v>
       </c>
       <c r="N23" t="n">
-        <v>313.2724304001925</v>
+        <v>313.2724304001926</v>
       </c>
       <c r="O23" t="n">
-        <v>293.6254040275394</v>
+        <v>293.6254040275395</v>
       </c>
       <c r="P23" t="n">
-        <v>244.93944600341</v>
+        <v>244.9394460034101</v>
       </c>
       <c r="Q23" t="n">
         <v>176.0321804455866</v>
       </c>
       <c r="R23" t="n">
-        <v>88.37740944977563</v>
+        <v>88.37740944977568</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>43.71326594050407</v>
+        <v>20.01901761281536</v>
       </c>
       <c r="J24" t="n">
-        <v>78.70086546022149</v>
+        <v>78.70086546022154</v>
       </c>
       <c r="K24" t="n">
         <v>147.3407578132619</v>
       </c>
       <c r="L24" t="n">
-        <v>467.2582353619879</v>
+        <v>205.7212792706334</v>
       </c>
       <c r="M24" t="n">
-        <v>243.2442933780978</v>
+        <v>243.2442933780979</v>
       </c>
       <c r="N24" t="n">
-        <v>252.0473013801637</v>
+        <v>252.0473013801638</v>
       </c>
       <c r="O24" t="n">
-        <v>226.9268507197706</v>
+        <v>226.9268507197707</v>
       </c>
       <c r="P24" t="n">
-        <v>178.955447094312</v>
+        <v>464.1866515133544</v>
       </c>
       <c r="Q24" t="n">
-        <v>111.4331696824072</v>
+        <v>111.4331696824073</v>
       </c>
       <c r="R24" t="n">
-        <v>41.59147807846912</v>
+        <v>41.59147807846915</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>41.66838859861703</v>
+        <v>41.66838859861706</v>
       </c>
       <c r="K25" t="n">
-        <v>81.42183748050022</v>
+        <v>81.42183748050026</v>
       </c>
       <c r="L25" t="n">
-        <v>109.1006993434031</v>
+        <v>489.2915009506405</v>
       </c>
       <c r="M25" t="n">
-        <v>527.3683654126322</v>
+        <v>527.3683654126323</v>
       </c>
       <c r="N25" t="n">
-        <v>395.7327508801149</v>
+        <v>331.4573074277338</v>
       </c>
       <c r="O25" t="n">
         <v>483.5805321872228</v>
       </c>
       <c r="P25" t="n">
-        <v>400.1190558285954</v>
+        <v>84.2036976737393</v>
       </c>
       <c r="Q25" t="n">
-        <v>49.17401917549816</v>
+        <v>49.17401917549817</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,25 +36591,25 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.1931089440132</v>
+        <v>41.19310894401322</v>
       </c>
       <c r="J26" t="n">
-        <v>137.3247049013574</v>
+        <v>137.3247049013576</v>
       </c>
       <c r="K26" t="n">
-        <v>214.1424270260509</v>
+        <v>214.142427026051</v>
       </c>
       <c r="L26" t="n">
-        <v>271.7197238701819</v>
+        <v>271.719723870182</v>
       </c>
       <c r="M26" t="n">
-        <v>307.5388138384759</v>
+        <v>307.538813838476</v>
       </c>
       <c r="N26" t="n">
-        <v>313.2724304001925</v>
+        <v>313.2724304001926</v>
       </c>
       <c r="O26" t="n">
-        <v>293.6254040275394</v>
+        <v>293.6254040275395</v>
       </c>
       <c r="P26" t="n">
         <v>244.9394460034101</v>
@@ -36618,7 +36618,7 @@
         <v>176.0321804455866</v>
       </c>
       <c r="R26" t="n">
-        <v>88.37740944977566</v>
+        <v>88.37740944977568</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.01901761281535</v>
+        <v>43.71326594050409</v>
       </c>
       <c r="J27" t="n">
-        <v>78.70086546022151</v>
+        <v>233.7171141930843</v>
       </c>
       <c r="K27" t="n">
         <v>147.3407578132619</v>
       </c>
       <c r="L27" t="n">
-        <v>205.7212792706333</v>
+        <v>205.7212792706334</v>
       </c>
       <c r="M27" t="n">
-        <v>243.2442933780978</v>
+        <v>243.2442933780979</v>
       </c>
       <c r="N27" t="n">
-        <v>252.0473013801637</v>
+        <v>252.0473013801638</v>
       </c>
       <c r="O27" t="n">
-        <v>226.9268507197706</v>
+        <v>226.9268507197707</v>
       </c>
       <c r="P27" t="n">
-        <v>464.1866515133553</v>
+        <v>178.9554470943121</v>
       </c>
       <c r="Q27" t="n">
-        <v>111.4331696824072</v>
+        <v>111.4331696824073</v>
       </c>
       <c r="R27" t="n">
-        <v>41.59147807846914</v>
+        <v>148.1121854369599</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>120.3771932937896</v>
+        <v>41.66838859861706</v>
       </c>
       <c r="K28" t="n">
-        <v>163.0465664291223</v>
+        <v>81.42183748050026</v>
       </c>
       <c r="L28" t="n">
-        <v>489.2915009506405</v>
+        <v>304.5873021169825</v>
       </c>
       <c r="M28" t="n">
-        <v>115.5662095924249</v>
+        <v>527.3683654126323</v>
       </c>
       <c r="N28" t="n">
-        <v>114.1080488453513</v>
+        <v>516.1615062613919</v>
       </c>
       <c r="O28" t="n">
         <v>483.5805321872228</v>
       </c>
       <c r="P28" t="n">
-        <v>400.1190558285955</v>
+        <v>84.2036976737393</v>
       </c>
       <c r="Q28" t="n">
-        <v>202.0765417794366</v>
+        <v>49.17401917549817</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,25 +36828,25 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.1931089440132</v>
+        <v>41.19310894401322</v>
       </c>
       <c r="J29" t="n">
         <v>137.3247049013576</v>
       </c>
       <c r="K29" t="n">
-        <v>214.1424270260509</v>
+        <v>214.142427026051</v>
       </c>
       <c r="L29" t="n">
-        <v>271.7197238701819</v>
+        <v>271.7197238701822</v>
       </c>
       <c r="M29" t="n">
-        <v>307.5388138384759</v>
+        <v>307.538813838476</v>
       </c>
       <c r="N29" t="n">
-        <v>313.2724304001925</v>
+        <v>313.2724304001926</v>
       </c>
       <c r="O29" t="n">
-        <v>293.6254040275394</v>
+        <v>293.6254040275395</v>
       </c>
       <c r="P29" t="n">
         <v>244.9394460034101</v>
@@ -36855,7 +36855,7 @@
         <v>176.0321804455866</v>
       </c>
       <c r="R29" t="n">
-        <v>88.37740944977566</v>
+        <v>88.37740944977568</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>43.71326594050407</v>
+        <v>43.71326594050409</v>
       </c>
       <c r="J30" t="n">
-        <v>78.70086546022151</v>
+        <v>233.7171141930843</v>
       </c>
       <c r="K30" t="n">
         <v>147.3407578132619</v>
       </c>
       <c r="L30" t="n">
-        <v>205.7212792706333</v>
+        <v>205.7212792706334</v>
       </c>
       <c r="M30" t="n">
-        <v>243.2442933780978</v>
+        <v>243.2442933780979</v>
       </c>
       <c r="N30" t="n">
-        <v>252.0473013801637</v>
+        <v>252.0473013801638</v>
       </c>
       <c r="O30" t="n">
-        <v>226.9268507197706</v>
+        <v>226.9268507197707</v>
       </c>
       <c r="P30" t="n">
         <v>178.9554470943121</v>
       </c>
       <c r="Q30" t="n">
-        <v>266.4494184152708</v>
+        <v>111.4331696824073</v>
       </c>
       <c r="R30" t="n">
         <v>148.1121854369599</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>120.3771932937896</v>
+        <v>41.66838859861706</v>
       </c>
       <c r="K31" t="n">
-        <v>331.2022507269871</v>
+        <v>331.2022507269872</v>
       </c>
       <c r="L31" t="n">
         <v>489.2915009506405</v>
       </c>
       <c r="M31" t="n">
-        <v>527.3683654126321</v>
+        <v>115.5662095924249</v>
       </c>
       <c r="N31" t="n">
-        <v>231.5830661783003</v>
+        <v>114.1080488453513</v>
       </c>
       <c r="O31" t="n">
-        <v>102.0630328910579</v>
+        <v>483.5805321872228</v>
       </c>
       <c r="P31" t="n">
-        <v>84.20369767373928</v>
+        <v>400.1190558285955</v>
       </c>
       <c r="Q31" t="n">
-        <v>202.0765417794366</v>
+        <v>112.6296621767452</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,25 +37065,25 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.1931089440132</v>
+        <v>41.19310894401322</v>
       </c>
       <c r="J32" t="n">
         <v>137.3247049013576</v>
       </c>
       <c r="K32" t="n">
-        <v>214.1424270260507</v>
+        <v>214.142427026051</v>
       </c>
       <c r="L32" t="n">
-        <v>271.7197238701819</v>
+        <v>271.719723870182</v>
       </c>
       <c r="M32" t="n">
-        <v>307.5388138384759</v>
+        <v>307.538813838476</v>
       </c>
       <c r="N32" t="n">
-        <v>313.2724304001925</v>
+        <v>313.2724304001926</v>
       </c>
       <c r="O32" t="n">
-        <v>293.6254040275394</v>
+        <v>293.6254040275395</v>
       </c>
       <c r="P32" t="n">
         <v>244.9394460034101</v>
@@ -37092,7 +37092,7 @@
         <v>176.0321804455866</v>
       </c>
       <c r="R32" t="n">
-        <v>88.37740944977566</v>
+        <v>88.37740944977568</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>43.71326594050407</v>
+        <v>20.01901761281536</v>
       </c>
       <c r="J33" t="n">
-        <v>78.70086546022151</v>
+        <v>363.9320698792638</v>
       </c>
       <c r="K33" t="n">
         <v>147.3407578132619</v>
       </c>
       <c r="L33" t="n">
-        <v>205.7212792706333</v>
+        <v>205.7212792706334</v>
       </c>
       <c r="M33" t="n">
-        <v>398.2605421109615</v>
+        <v>243.2442933780979</v>
       </c>
       <c r="N33" t="n">
-        <v>252.0473013801637</v>
+        <v>252.0473013801638</v>
       </c>
       <c r="O33" t="n">
-        <v>226.9268507197706</v>
+        <v>226.9268507197707</v>
       </c>
       <c r="P33" t="n">
         <v>178.9554470943121</v>
       </c>
       <c r="Q33" t="n">
-        <v>111.4331696824072</v>
+        <v>111.4331696824073</v>
       </c>
       <c r="R33" t="n">
-        <v>148.1121854369599</v>
+        <v>41.59147807846915</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>120.3771932937896</v>
+        <v>41.66838859861706</v>
       </c>
       <c r="K34" t="n">
-        <v>331.2022507269871</v>
+        <v>81.42183748050026</v>
       </c>
       <c r="L34" t="n">
-        <v>489.2915009506405</v>
+        <v>400.4740997823338</v>
       </c>
       <c r="M34" t="n">
         <v>115.5662095924249</v>
@@ -37241,13 +37241,13 @@
         <v>516.1615062613919</v>
       </c>
       <c r="O34" t="n">
-        <v>229.2867486281737</v>
+        <v>483.5805321872228</v>
       </c>
       <c r="P34" t="n">
-        <v>84.20369767373928</v>
+        <v>400.1190558285955</v>
       </c>
       <c r="Q34" t="n">
-        <v>202.0765417794366</v>
+        <v>49.17401917549817</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,25 +37302,25 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.1931089440132</v>
+        <v>41.19310894401322</v>
       </c>
       <c r="J35" t="n">
         <v>137.3247049013576</v>
       </c>
       <c r="K35" t="n">
-        <v>214.1424270260509</v>
+        <v>214.142427026051</v>
       </c>
       <c r="L35" t="n">
-        <v>271.7197238701819</v>
+        <v>271.719723870182</v>
       </c>
       <c r="M35" t="n">
-        <v>307.5388138384759</v>
+        <v>307.538813838476</v>
       </c>
       <c r="N35" t="n">
-        <v>313.2724304001925</v>
+        <v>313.2724304001926</v>
       </c>
       <c r="O35" t="n">
-        <v>293.6254040275394</v>
+        <v>293.6254040275395</v>
       </c>
       <c r="P35" t="n">
         <v>244.9394460034101</v>
@@ -37329,7 +37329,7 @@
         <v>176.0321804455866</v>
       </c>
       <c r="R35" t="n">
-        <v>88.37740944977566</v>
+        <v>88.37740944977568</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.01901761281535</v>
+        <v>43.71326594050409</v>
       </c>
       <c r="J36" t="n">
-        <v>78.70086546022151</v>
+        <v>233.7171141930843</v>
       </c>
       <c r="K36" t="n">
         <v>147.3407578132619</v>
       </c>
       <c r="L36" t="n">
-        <v>384.4317763311857</v>
+        <v>205.7212792706334</v>
       </c>
       <c r="M36" t="n">
-        <v>243.2442933780978</v>
+        <v>243.2442933780979</v>
       </c>
       <c r="N36" t="n">
-        <v>252.0473013801637</v>
+        <v>252.0473013801638</v>
       </c>
       <c r="O36" t="n">
-        <v>226.9268507197706</v>
+        <v>226.9268507197707</v>
       </c>
       <c r="P36" t="n">
         <v>178.9554470943121</v>
       </c>
       <c r="Q36" t="n">
-        <v>111.4331696824072</v>
+        <v>111.4331696824073</v>
       </c>
       <c r="R36" t="n">
         <v>148.1121854369599</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>120.3771932937896</v>
+        <v>41.66838859861706</v>
       </c>
       <c r="K37" t="n">
-        <v>81.42183748050023</v>
+        <v>81.42183748050026</v>
       </c>
       <c r="L37" t="n">
         <v>489.2915009506405</v>
       </c>
       <c r="M37" t="n">
-        <v>527.3683654126321</v>
+        <v>527.3683654126323</v>
       </c>
       <c r="N37" t="n">
-        <v>114.1080488453513</v>
+        <v>516.1615062613919</v>
       </c>
       <c r="O37" t="n">
-        <v>306.3056279195762</v>
+        <v>298.8763333535649</v>
       </c>
       <c r="P37" t="n">
-        <v>400.1190558285955</v>
+        <v>84.2036976737393</v>
       </c>
       <c r="Q37" t="n">
-        <v>49.17401917549816</v>
+        <v>49.17401917549817</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,25 +37539,25 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.1931089440132</v>
+        <v>41.19310894401322</v>
       </c>
       <c r="J38" t="n">
         <v>137.3247049013576</v>
       </c>
       <c r="K38" t="n">
-        <v>214.1424270260509</v>
+        <v>214.142427026051</v>
       </c>
       <c r="L38" t="n">
-        <v>271.7197238701819</v>
+        <v>271.719723870182</v>
       </c>
       <c r="M38" t="n">
-        <v>307.5388138384759</v>
+        <v>307.538813838476</v>
       </c>
       <c r="N38" t="n">
-        <v>313.2724304001925</v>
+        <v>313.2724304001926</v>
       </c>
       <c r="O38" t="n">
-        <v>293.6254040275394</v>
+        <v>293.6254040275395</v>
       </c>
       <c r="P38" t="n">
         <v>244.9394460034101</v>
@@ -37566,7 +37566,7 @@
         <v>176.0321804455866</v>
       </c>
       <c r="R38" t="n">
-        <v>88.37740944977566</v>
+        <v>88.37740944977568</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>43.71326594050407</v>
+        <v>20.01901761281536</v>
       </c>
       <c r="J39" t="n">
-        <v>78.70086546022151</v>
+        <v>78.70086546022154</v>
       </c>
       <c r="K39" t="n">
         <v>147.3407578132619</v>
       </c>
       <c r="L39" t="n">
-        <v>205.7212792706333</v>
+        <v>205.7212792706334</v>
       </c>
       <c r="M39" t="n">
-        <v>243.2442933780978</v>
+        <v>243.2442933780979</v>
       </c>
       <c r="N39" t="n">
-        <v>252.0473013801637</v>
+        <v>252.0473013801638</v>
       </c>
       <c r="O39" t="n">
-        <v>226.9268507197706</v>
+        <v>226.9268507197707</v>
       </c>
       <c r="P39" t="n">
-        <v>178.9554470943121</v>
+        <v>357.6659441548637</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.9701257737616</v>
+        <v>111.4331696824073</v>
       </c>
       <c r="R39" t="n">
-        <v>41.59147807846914</v>
+        <v>148.1121854369599</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,10 +37703,10 @@
         <v>120.3771932937896</v>
       </c>
       <c r="K40" t="n">
-        <v>331.2022507269871</v>
+        <v>331.2022507269872</v>
       </c>
       <c r="L40" t="n">
-        <v>109.1006993434031</v>
+        <v>387.9002399955304</v>
       </c>
       <c r="M40" t="n">
         <v>115.5662095924249</v>
@@ -37715,13 +37715,13 @@
         <v>516.1615062613919</v>
       </c>
       <c r="O40" t="n">
-        <v>293.562192080555</v>
+        <v>483.5805321872228</v>
       </c>
       <c r="P40" t="n">
-        <v>400.1190558285955</v>
+        <v>84.2036976737393</v>
       </c>
       <c r="Q40" t="n">
-        <v>202.0765417794366</v>
+        <v>49.17401917549817</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>176.0321804455866</v>
       </c>
       <c r="R41" t="n">
-        <v>88.37740944977575</v>
+        <v>88.37740944977566</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.01901761281535</v>
+        <v>43.71326594050409</v>
       </c>
       <c r="J42" t="n">
-        <v>78.70086546022152</v>
+        <v>233.7171141930848</v>
       </c>
       <c r="K42" t="n">
         <v>147.3407578132619</v>
@@ -37873,7 +37873,7 @@
         <v>252.0473013801638</v>
       </c>
       <c r="O42" t="n">
-        <v>512.1580551388134</v>
+        <v>226.9268507197707</v>
       </c>
       <c r="P42" t="n">
         <v>178.9554470943121</v>
@@ -37882,7 +37882,7 @@
         <v>111.4331696824072</v>
       </c>
       <c r="R42" t="n">
-        <v>41.59147807846914</v>
+        <v>148.1121854369599</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>120.3771932937896</v>
+        <v>41.66838859861704</v>
       </c>
       <c r="K43" t="n">
         <v>81.42183748050024</v>
       </c>
       <c r="L43" t="n">
-        <v>489.2915009506405</v>
+        <v>304.5873021169825</v>
       </c>
       <c r="M43" t="n">
-        <v>115.5662095924249</v>
+        <v>527.3683654126323</v>
       </c>
       <c r="N43" t="n">
         <v>516.1615062613919</v>
       </c>
       <c r="O43" t="n">
-        <v>479.0671618746609</v>
+        <v>483.5805321872228</v>
       </c>
       <c r="P43" t="n">
         <v>84.20369767373928</v>
       </c>
       <c r="Q43" t="n">
-        <v>202.0765417794366</v>
+        <v>49.17401917549817</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.19310894401322</v>
+        <v>41.19310894401365</v>
       </c>
       <c r="J44" t="n">
         <v>137.3247049013576</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.01901761281535</v>
+        <v>43.71326594050409</v>
       </c>
       <c r="J45" t="n">
-        <v>78.70086546022152</v>
+        <v>233.7171141930848</v>
       </c>
       <c r="K45" t="n">
         <v>147.3407578132619</v>
@@ -38110,7 +38110,7 @@
         <v>252.0473013801638</v>
       </c>
       <c r="O45" t="n">
-        <v>405.6373477803227</v>
+        <v>226.9268507197707</v>
       </c>
       <c r="P45" t="n">
         <v>178.9554470943121</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>120.3771932937896</v>
+        <v>41.66838859861704</v>
       </c>
       <c r="K46" t="n">
         <v>81.42183748050024</v>
       </c>
       <c r="L46" t="n">
-        <v>225.8784974218095</v>
+        <v>489.2915009506405</v>
       </c>
       <c r="M46" t="n">
-        <v>527.3683654126322</v>
+        <v>115.5662095924249</v>
       </c>
       <c r="N46" t="n">
         <v>516.1615062613919</v>
@@ -38192,7 +38192,7 @@
         <v>483.5805321872228</v>
       </c>
       <c r="P46" t="n">
-        <v>84.20369767373928</v>
+        <v>311.3016546602886</v>
       </c>
       <c r="Q46" t="n">
         <v>49.17401917549817</v>
